--- a/05.Controls/M3.Cord.Controls/Resources/Excels/FM4011Sx9_APP.xlsx
+++ b/05.Controls/M3.Cord.Controls/Resources/Excels/FM4011Sx9_APP.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'S-9'!$A$1:$BD$52</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -989,117 +989,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1135,6 +1024,117 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1173,7 +1173,7 @@
         <xdr:cNvPr id="2" name="Picture 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A4EF3C2-101C-4A6C-A8CC-BD22930623FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A4EF3C2-101C-4A6C-A8CC-BD22930623FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1185,7 +1185,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1208,14 +1208,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1247,7 +1247,7 @@
         <xdr:cNvPr id="3" name="Text Box 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1576BC49-A2D6-40CE-A6BF-7E00BFDD722A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1576BC49-A2D6-40CE-A6BF-7E00BFDD722A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1269,14 +1269,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1308,7 +1308,7 @@
         <xdr:cNvPr id="4" name="Picture 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D58802B4-E1D3-4E85-8106-08CD0ABC9B20}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D58802B4-E1D3-4E85-8106-08CD0ABC9B20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1320,7 +1320,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1343,14 +1343,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1382,7 +1382,7 @@
         <xdr:cNvPr id="5" name="Text Box 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7546F9F1-F653-4BFD-977F-629C5E672F00}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7546F9F1-F653-4BFD-977F-629C5E672F00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,7 +1476,7 @@
         <xdr:cNvPr id="6" name="Text Box 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B775BE3-858F-4CC8-8780-8F8533293FEB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B775BE3-858F-4CC8-8780-8F8533293FEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1498,14 +1498,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1537,7 +1537,7 @@
         <xdr:cNvPr id="7" name="Picture 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA0110F3-7843-43F5-BC61-66766870A07A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0110F3-7843-43F5-BC61-66766870A07A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1549,7 +1549,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1572,14 +1572,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1611,7 +1611,7 @@
         <xdr:cNvPr id="8" name="Oval 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ABE7B50D-BAAD-424A-98C7-A497B6495AC8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE7B50D-BAAD-424A-98C7-A497B6495AC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1674,7 +1674,7 @@
         <xdr:cNvPr id="9" name="Text Box 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAD7C89F-5B29-4C22-9E84-008C7A2E635D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAD7C89F-5B29-4C22-9E84-008C7A2E635D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1738,7 @@
         <xdr:cNvPr id="10" name="Text Box 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07AC17ED-DFA5-46DB-AAE7-D6E4A1BF1972}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07AC17ED-DFA5-46DB-AAE7-D6E4A1BF1972}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1760,14 +1760,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1799,7 +1799,7 @@
         <xdr:cNvPr id="11" name="AutoShape 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9705FD41-F8C0-4019-966E-EF1C7499E4EB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9705FD41-F8C0-4019-966E-EF1C7499E4EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1851,7 +1851,7 @@
         <xdr:cNvPr id="12" name="Text Box 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87FC0729-4A77-4B6D-81C6-57474CD3F389}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FC0729-4A77-4B6D-81C6-57474CD3F389}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1954,7 +1954,7 @@
         <xdr:cNvPr id="13" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{178A3BE4-6B72-4F54-A5E3-BA4B20B8ADD1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{178A3BE4-6B72-4F54-A5E3-BA4B20B8ADD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1966,7 +1966,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1991,7 +1991,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2023,7 +2023,7 @@
         <xdr:cNvPr id="14" name="TextBox 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{70F5B483-6372-4093-A650-11CA9C857517}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70F5B483-6372-4093-A650-11CA9C857517}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2113,7 +2113,7 @@
         <xdr:cNvPr id="15" name="Picture 24" descr="caution">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC0ED398-8252-4D4F-871B-1DC0EF7C5778}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC0ED398-8252-4D4F-871B-1DC0EF7C5778}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2125,7 +2125,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2148,14 +2148,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2187,7 +2187,7 @@
         <xdr:cNvPr id="16" name="Text Box 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{233851CF-E701-451A-8AEC-2A0C4B589BBC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{233851CF-E701-451A-8AEC-2A0C4B589BBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2266,7 +2266,7 @@
         <xdr:cNvPr id="17" name="Text Box 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF3F121F-1DD1-4045-B0D7-CDC015D19D79}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF3F121F-1DD1-4045-B0D7-CDC015D19D79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2288,14 +2288,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2327,7 +2327,7 @@
         <xdr:cNvPr id="18" name="Text Box 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C67A84BF-FF8D-4631-AB12-DB41E9F305C2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C67A84BF-FF8D-4631-AB12-DB41E9F305C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2349,14 +2349,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2388,7 +2388,7 @@
         <xdr:cNvPr id="19" name="Text Box 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF875C00-53D4-4525-8495-52FD8B771C56}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF875C00-53D4-4525-8495-52FD8B771C56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2452,7 +2452,7 @@
         <xdr:cNvPr id="20" name="Text Box 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{44D40445-2675-4CAE-BD4A-2013058DDC5F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D40445-2675-4CAE-BD4A-2013058DDC5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2474,14 +2474,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2513,7 +2513,7 @@
         <xdr:cNvPr id="21" name="AutoShape 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF3D0FCA-116F-4FAC-8E49-E9D4798C1426}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF3D0FCA-116F-4FAC-8E49-E9D4798C1426}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2565,7 +2565,7 @@
         <xdr:cNvPr id="22" name="Rectangle 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F72E7C88-BCAC-4B24-912A-81CC66DADB44}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F72E7C88-BCAC-4B24-912A-81CC66DADB44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2628,7 +2628,7 @@
         <xdr:cNvPr id="23" name="Rectangle 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8E8A0CE-E3B1-4E18-AD4A-AED087734FA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E8A0CE-E3B1-4E18-AD4A-AED087734FA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2691,7 +2691,7 @@
         <xdr:cNvPr id="24" name="Oval 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{686D7B66-D2CC-40DE-AEA8-FEF682D2A472}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{686D7B66-D2CC-40DE-AEA8-FEF682D2A472}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2754,7 +2754,7 @@
         <xdr:cNvPr id="25" name="Oval 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A9358E5C-93D3-401C-9EDD-291182497700}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9358E5C-93D3-401C-9EDD-291182497700}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3091,7 +3091,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3102,7 +3102,7 @@
   <dimension ref="A1:BN54"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="17.399999999999999"/>
@@ -6805,20 +6805,20 @@
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="2"/>
-      <c r="AS2" s="99" t="s">
+      <c r="AS2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="AT2" s="99"/>
-      <c r="AU2" s="99"/>
-      <c r="AV2" s="99"/>
-      <c r="AW2" s="99"/>
-      <c r="AX2" s="99"/>
-      <c r="AY2" s="99"/>
-      <c r="AZ2" s="99"/>
-      <c r="BA2" s="99"/>
-      <c r="BB2" s="99"/>
-      <c r="BC2" s="99"/>
-      <c r="BD2" s="99"/>
+      <c r="AT2" s="78"/>
+      <c r="AU2" s="78"/>
+      <c r="AV2" s="78"/>
+      <c r="AW2" s="78"/>
+      <c r="AX2" s="78"/>
+      <c r="AY2" s="78"/>
+      <c r="AZ2" s="78"/>
+      <c r="BA2" s="78"/>
+      <c r="BB2" s="78"/>
+      <c r="BC2" s="78"/>
+      <c r="BD2" s="78"/>
     </row>
     <row r="3" spans="1:56" ht="8.25" customHeight="1" thickBot="1">
       <c r="AA3" s="3"/>
@@ -6832,14 +6832,14 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="93" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="94"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
@@ -6849,29 +6849,29 @@
       <c r="H4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="93" t="s">
+      <c r="I4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="100" t="s">
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="101" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="93" t="s">
+      <c r="P4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="93" t="s">
+      <c r="Q4" s="80"/>
+      <c r="R4" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="94"/>
+      <c r="S4" s="80"/>
       <c r="T4" s="5" t="s">
         <v>5</v>
       </c>
@@ -6881,29 +6881,29 @@
       <c r="V4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="W4" s="93" t="s">
+      <c r="W4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="94"/>
-      <c r="AA4" s="96" t="s">
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="AB4" s="92" t="s">
+      <c r="AB4" s="88" t="s">
         <v>10</v>
       </c>
       <c r="AC4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="93" t="s">
+      <c r="AD4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="94"/>
-      <c r="AF4" s="93" t="s">
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="AG4" s="94"/>
+      <c r="AG4" s="80"/>
       <c r="AH4" s="5" t="s">
         <v>5</v>
       </c>
@@ -6913,29 +6913,29 @@
       <c r="AJ4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AK4" s="93" t="s">
+      <c r="AK4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="AL4" s="95"/>
-      <c r="AM4" s="95"/>
-      <c r="AN4" s="94"/>
-      <c r="AO4" s="96" t="s">
+      <c r="AL4" s="81"/>
+      <c r="AM4" s="81"/>
+      <c r="AN4" s="80"/>
+      <c r="AO4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="AP4" s="92" t="s">
+      <c r="AP4" s="88" t="s">
         <v>10</v>
       </c>
       <c r="AQ4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AR4" s="93" t="s">
+      <c r="AR4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="93" t="s">
+      <c r="AS4" s="80"/>
+      <c r="AT4" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="AU4" s="94"/>
+      <c r="AU4" s="80"/>
       <c r="AV4" s="5" t="s">
         <v>5</v>
       </c>
@@ -6945,29 +6945,29 @@
       <c r="AX4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AY4" s="93" t="s">
+      <c r="AY4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="AZ4" s="95"/>
-      <c r="BA4" s="95"/>
-      <c r="BB4" s="94"/>
-      <c r="BC4" s="96" t="s">
+      <c r="AZ4" s="81"/>
+      <c r="BA4" s="81"/>
+      <c r="BB4" s="80"/>
+      <c r="BC4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="BD4" s="92" t="s">
+      <c r="BD4" s="88" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:56" ht="16.5" customHeight="1">
       <c r="A5" s="10"/>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="79" t="s">
+      <c r="C5" s="90"/>
+      <c r="D5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="80"/>
+      <c r="E5" s="90"/>
       <c r="F5" s="11" t="s">
         <v>13</v>
       </c>
@@ -6977,25 +6977,25 @@
       <c r="H5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="79" t="s">
+      <c r="I5" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="80"/>
-      <c r="K5" s="79" t="s">
+      <c r="J5" s="90"/>
+      <c r="K5" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="80"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="98"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="85"/>
       <c r="O5" s="14"/>
-      <c r="P5" s="79" t="s">
+      <c r="P5" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="79" t="s">
+      <c r="Q5" s="90"/>
+      <c r="R5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="80"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="11" t="s">
         <v>13</v>
       </c>
@@ -7005,25 +7005,25 @@
       <c r="V5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="79" t="s">
+      <c r="W5" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="79" t="s">
+      <c r="X5" s="90"/>
+      <c r="Y5" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="102"/>
-      <c r="AB5" s="92"/>
+      <c r="Z5" s="90"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="88"/>
       <c r="AC5" s="15"/>
-      <c r="AD5" s="79" t="s">
+      <c r="AD5" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="AE5" s="80"/>
-      <c r="AF5" s="79" t="s">
+      <c r="AE5" s="90"/>
+      <c r="AF5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="AG5" s="80"/>
+      <c r="AG5" s="90"/>
       <c r="AH5" s="11" t="s">
         <v>13</v>
       </c>
@@ -7033,25 +7033,25 @@
       <c r="AJ5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AK5" s="79" t="s">
+      <c r="AK5" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="AL5" s="80"/>
-      <c r="AM5" s="79" t="s">
+      <c r="AL5" s="90"/>
+      <c r="AM5" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="AN5" s="80"/>
-      <c r="AO5" s="97"/>
-      <c r="AP5" s="98"/>
+      <c r="AN5" s="90"/>
+      <c r="AO5" s="83"/>
+      <c r="AP5" s="85"/>
       <c r="AQ5" s="16"/>
-      <c r="AR5" s="79" t="s">
+      <c r="AR5" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="AS5" s="80"/>
-      <c r="AT5" s="79" t="s">
+      <c r="AS5" s="90"/>
+      <c r="AT5" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="AU5" s="80"/>
+      <c r="AU5" s="90"/>
       <c r="AV5" s="11" t="s">
         <v>13</v>
       </c>
@@ -7061,16 +7061,16 @@
       <c r="AX5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AY5" s="79" t="s">
+      <c r="AY5" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="AZ5" s="80"/>
-      <c r="BA5" s="79" t="s">
+      <c r="AZ5" s="90"/>
+      <c r="BA5" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="BB5" s="80"/>
-      <c r="BC5" s="97"/>
-      <c r="BD5" s="98"/>
+      <c r="BB5" s="90"/>
+      <c r="BC5" s="83"/>
+      <c r="BD5" s="85"/>
     </row>
     <row r="6" spans="1:56" ht="16.5" customHeight="1">
       <c r="A6" s="17"/>
@@ -7142,2535 +7142,2535 @@
       <c r="A7" s="32">
         <v>1</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
       <c r="O7" s="33">
         <v>39</v>
       </c>
-      <c r="P7" s="105"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="105"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="106"/>
-      <c r="U7" s="106"/>
-      <c r="V7" s="106"/>
-      <c r="W7" s="105"/>
-      <c r="X7" s="104"/>
-      <c r="Y7" s="105"/>
-      <c r="Z7" s="105"/>
-      <c r="AA7" s="108"/>
-      <c r="AB7" s="108"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="71"/>
       <c r="AC7" s="34">
         <v>77</v>
       </c>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="104"/>
-      <c r="AF7" s="105"/>
-      <c r="AG7" s="104"/>
-      <c r="AH7" s="106"/>
-      <c r="AI7" s="106"/>
-      <c r="AJ7" s="106"/>
-      <c r="AK7" s="105"/>
-      <c r="AL7" s="104"/>
-      <c r="AM7" s="105"/>
-      <c r="AN7" s="104"/>
-      <c r="AO7" s="108"/>
-      <c r="AP7" s="108"/>
+      <c r="AD7" s="68"/>
+      <c r="AE7" s="67"/>
+      <c r="AF7" s="68"/>
+      <c r="AG7" s="67"/>
+      <c r="AH7" s="69"/>
+      <c r="AI7" s="69"/>
+      <c r="AJ7" s="69"/>
+      <c r="AK7" s="68"/>
+      <c r="AL7" s="67"/>
+      <c r="AM7" s="68"/>
+      <c r="AN7" s="67"/>
+      <c r="AO7" s="71"/>
+      <c r="AP7" s="71"/>
       <c r="AQ7" s="33">
         <v>115</v>
       </c>
-      <c r="AR7" s="105"/>
-      <c r="AS7" s="104"/>
-      <c r="AT7" s="105"/>
-      <c r="AU7" s="104"/>
-      <c r="AV7" s="106"/>
-      <c r="AW7" s="106"/>
-      <c r="AX7" s="106"/>
-      <c r="AY7" s="105"/>
-      <c r="AZ7" s="104"/>
-      <c r="BA7" s="105"/>
-      <c r="BB7" s="104"/>
-      <c r="BC7" s="108"/>
-      <c r="BD7" s="108"/>
+      <c r="AR7" s="68"/>
+      <c r="AS7" s="67"/>
+      <c r="AT7" s="68"/>
+      <c r="AU7" s="67"/>
+      <c r="AV7" s="69"/>
+      <c r="AW7" s="69"/>
+      <c r="AX7" s="69"/>
+      <c r="AY7" s="68"/>
+      <c r="AZ7" s="67"/>
+      <c r="BA7" s="68"/>
+      <c r="BB7" s="67"/>
+      <c r="BC7" s="71"/>
+      <c r="BD7" s="71"/>
     </row>
     <row r="8" spans="1:56" ht="13.5" customHeight="1">
       <c r="A8" s="32">
         <v>2</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
       <c r="O8" s="33">
         <v>40</v>
       </c>
-      <c r="P8" s="105"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="105"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="106"/>
-      <c r="U8" s="106"/>
-      <c r="V8" s="106"/>
-      <c r="W8" s="105"/>
-      <c r="X8" s="104"/>
-      <c r="Y8" s="105"/>
-      <c r="Z8" s="105"/>
-      <c r="AA8" s="108"/>
-      <c r="AB8" s="108"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
       <c r="AC8" s="34">
         <v>78</v>
       </c>
-      <c r="AD8" s="105"/>
-      <c r="AE8" s="104"/>
-      <c r="AF8" s="105"/>
-      <c r="AG8" s="104"/>
-      <c r="AH8" s="106"/>
-      <c r="AI8" s="106"/>
-      <c r="AJ8" s="106"/>
-      <c r="AK8" s="105"/>
-      <c r="AL8" s="104"/>
-      <c r="AM8" s="105"/>
-      <c r="AN8" s="104"/>
-      <c r="AO8" s="108"/>
-      <c r="AP8" s="108"/>
+      <c r="AD8" s="68"/>
+      <c r="AE8" s="67"/>
+      <c r="AF8" s="68"/>
+      <c r="AG8" s="67"/>
+      <c r="AH8" s="69"/>
+      <c r="AI8" s="69"/>
+      <c r="AJ8" s="69"/>
+      <c r="AK8" s="68"/>
+      <c r="AL8" s="67"/>
+      <c r="AM8" s="68"/>
+      <c r="AN8" s="67"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="71"/>
       <c r="AQ8" s="33">
         <v>116</v>
       </c>
-      <c r="AR8" s="105"/>
-      <c r="AS8" s="104"/>
-      <c r="AT8" s="105"/>
-      <c r="AU8" s="104"/>
-      <c r="AV8" s="106"/>
-      <c r="AW8" s="106"/>
-      <c r="AX8" s="106"/>
-      <c r="AY8" s="105"/>
-      <c r="AZ8" s="104"/>
-      <c r="BA8" s="105"/>
-      <c r="BB8" s="104"/>
-      <c r="BC8" s="108"/>
-      <c r="BD8" s="108"/>
+      <c r="AR8" s="68"/>
+      <c r="AS8" s="67"/>
+      <c r="AT8" s="68"/>
+      <c r="AU8" s="67"/>
+      <c r="AV8" s="69"/>
+      <c r="AW8" s="69"/>
+      <c r="AX8" s="69"/>
+      <c r="AY8" s="68"/>
+      <c r="AZ8" s="67"/>
+      <c r="BA8" s="68"/>
+      <c r="BB8" s="67"/>
+      <c r="BC8" s="71"/>
+      <c r="BD8" s="71"/>
     </row>
     <row r="9" spans="1:56" ht="13.5" customHeight="1">
       <c r="A9" s="32">
         <v>3</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
       <c r="O9" s="33">
         <v>41</v>
       </c>
-      <c r="P9" s="105"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="106"/>
-      <c r="V9" s="106"/>
-      <c r="W9" s="105"/>
-      <c r="X9" s="104"/>
-      <c r="Y9" s="105"/>
-      <c r="Z9" s="105"/>
-      <c r="AA9" s="108"/>
-      <c r="AB9" s="108"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
       <c r="AC9" s="34">
         <v>79</v>
       </c>
-      <c r="AD9" s="105"/>
-      <c r="AE9" s="104"/>
-      <c r="AF9" s="105"/>
-      <c r="AG9" s="104"/>
-      <c r="AH9" s="106"/>
-      <c r="AI9" s="106"/>
-      <c r="AJ9" s="106"/>
-      <c r="AK9" s="105"/>
-      <c r="AL9" s="104"/>
-      <c r="AM9" s="105"/>
-      <c r="AN9" s="104"/>
-      <c r="AO9" s="108"/>
-      <c r="AP9" s="108"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="68"/>
+      <c r="AG9" s="67"/>
+      <c r="AH9" s="69"/>
+      <c r="AI9" s="69"/>
+      <c r="AJ9" s="69"/>
+      <c r="AK9" s="68"/>
+      <c r="AL9" s="67"/>
+      <c r="AM9" s="68"/>
+      <c r="AN9" s="67"/>
+      <c r="AO9" s="71"/>
+      <c r="AP9" s="71"/>
       <c r="AQ9" s="33">
         <v>117</v>
       </c>
-      <c r="AR9" s="105"/>
-      <c r="AS9" s="104"/>
-      <c r="AT9" s="105"/>
-      <c r="AU9" s="104"/>
-      <c r="AV9" s="106"/>
-      <c r="AW9" s="106"/>
-      <c r="AX9" s="106"/>
-      <c r="AY9" s="105"/>
-      <c r="AZ9" s="104"/>
-      <c r="BA9" s="105"/>
-      <c r="BB9" s="104"/>
-      <c r="BC9" s="108"/>
-      <c r="BD9" s="108"/>
+      <c r="AR9" s="68"/>
+      <c r="AS9" s="67"/>
+      <c r="AT9" s="68"/>
+      <c r="AU9" s="67"/>
+      <c r="AV9" s="69"/>
+      <c r="AW9" s="69"/>
+      <c r="AX9" s="69"/>
+      <c r="AY9" s="68"/>
+      <c r="AZ9" s="67"/>
+      <c r="BA9" s="68"/>
+      <c r="BB9" s="67"/>
+      <c r="BC9" s="71"/>
+      <c r="BD9" s="71"/>
     </row>
     <row r="10" spans="1:56" ht="13.5" customHeight="1">
       <c r="A10" s="32">
         <v>4</v>
       </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
       <c r="O10" s="33">
         <v>42</v>
       </c>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="105"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="106"/>
-      <c r="W10" s="105"/>
-      <c r="X10" s="104"/>
-      <c r="Y10" s="105"/>
-      <c r="Z10" s="105"/>
-      <c r="AA10" s="108"/>
-      <c r="AB10" s="108"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
       <c r="AC10" s="34">
         <v>80</v>
       </c>
-      <c r="AD10" s="105"/>
-      <c r="AE10" s="104"/>
-      <c r="AF10" s="105"/>
-      <c r="AG10" s="104"/>
-      <c r="AH10" s="106"/>
-      <c r="AI10" s="106"/>
-      <c r="AJ10" s="106"/>
-      <c r="AK10" s="105"/>
-      <c r="AL10" s="104"/>
-      <c r="AM10" s="105"/>
-      <c r="AN10" s="104"/>
-      <c r="AO10" s="108"/>
-      <c r="AP10" s="108"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="67"/>
+      <c r="AF10" s="68"/>
+      <c r="AG10" s="67"/>
+      <c r="AH10" s="69"/>
+      <c r="AI10" s="69"/>
+      <c r="AJ10" s="69"/>
+      <c r="AK10" s="68"/>
+      <c r="AL10" s="67"/>
+      <c r="AM10" s="68"/>
+      <c r="AN10" s="67"/>
+      <c r="AO10" s="71"/>
+      <c r="AP10" s="71"/>
       <c r="AQ10" s="33">
         <v>118</v>
       </c>
-      <c r="AR10" s="105"/>
-      <c r="AS10" s="104"/>
-      <c r="AT10" s="105"/>
-      <c r="AU10" s="104"/>
-      <c r="AV10" s="106"/>
-      <c r="AW10" s="106"/>
-      <c r="AX10" s="106"/>
-      <c r="AY10" s="105"/>
-      <c r="AZ10" s="104"/>
-      <c r="BA10" s="105"/>
-      <c r="BB10" s="104"/>
-      <c r="BC10" s="108"/>
-      <c r="BD10" s="108"/>
+      <c r="AR10" s="68"/>
+      <c r="AS10" s="67"/>
+      <c r="AT10" s="68"/>
+      <c r="AU10" s="67"/>
+      <c r="AV10" s="69"/>
+      <c r="AW10" s="69"/>
+      <c r="AX10" s="69"/>
+      <c r="AY10" s="68"/>
+      <c r="AZ10" s="67"/>
+      <c r="BA10" s="68"/>
+      <c r="BB10" s="67"/>
+      <c r="BC10" s="71"/>
+      <c r="BD10" s="71"/>
     </row>
     <row r="11" spans="1:56" ht="13.5" customHeight="1">
       <c r="A11" s="35">
         <v>5</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="108"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
       <c r="O11" s="33">
         <v>43</v>
       </c>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="104"/>
-      <c r="R11" s="103"/>
-      <c r="S11" s="104"/>
-      <c r="T11" s="106"/>
-      <c r="U11" s="106"/>
-      <c r="V11" s="106"/>
-      <c r="W11" s="103"/>
-      <c r="X11" s="104"/>
-      <c r="Y11" s="103"/>
-      <c r="Z11" s="105"/>
-      <c r="AA11" s="108"/>
-      <c r="AB11" s="108"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="71"/>
       <c r="AC11" s="34">
         <v>81</v>
       </c>
-      <c r="AD11" s="103"/>
-      <c r="AE11" s="104"/>
-      <c r="AF11" s="103"/>
-      <c r="AG11" s="104"/>
-      <c r="AH11" s="106"/>
-      <c r="AI11" s="106"/>
-      <c r="AJ11" s="106"/>
-      <c r="AK11" s="103"/>
-      <c r="AL11" s="104"/>
-      <c r="AM11" s="103"/>
-      <c r="AN11" s="104"/>
-      <c r="AO11" s="108"/>
-      <c r="AP11" s="108"/>
+      <c r="AD11" s="66"/>
+      <c r="AE11" s="67"/>
+      <c r="AF11" s="66"/>
+      <c r="AG11" s="67"/>
+      <c r="AH11" s="69"/>
+      <c r="AI11" s="69"/>
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="66"/>
+      <c r="AL11" s="67"/>
+      <c r="AM11" s="66"/>
+      <c r="AN11" s="67"/>
+      <c r="AO11" s="71"/>
+      <c r="AP11" s="71"/>
       <c r="AQ11" s="33">
         <v>119</v>
       </c>
-      <c r="AR11" s="103"/>
-      <c r="AS11" s="104"/>
-      <c r="AT11" s="103"/>
-      <c r="AU11" s="104"/>
-      <c r="AV11" s="106"/>
-      <c r="AW11" s="106"/>
-      <c r="AX11" s="106"/>
-      <c r="AY11" s="103"/>
-      <c r="AZ11" s="104"/>
-      <c r="BA11" s="103"/>
-      <c r="BB11" s="104"/>
-      <c r="BC11" s="108"/>
-      <c r="BD11" s="108"/>
+      <c r="AR11" s="66"/>
+      <c r="AS11" s="67"/>
+      <c r="AT11" s="66"/>
+      <c r="AU11" s="67"/>
+      <c r="AV11" s="69"/>
+      <c r="AW11" s="69"/>
+      <c r="AX11" s="69"/>
+      <c r="AY11" s="66"/>
+      <c r="AZ11" s="67"/>
+      <c r="BA11" s="66"/>
+      <c r="BB11" s="67"/>
+      <c r="BC11" s="71"/>
+      <c r="BD11" s="71"/>
     </row>
     <row r="12" spans="1:56" ht="13.5" customHeight="1">
       <c r="A12" s="35">
         <v>6</v>
       </c>
-      <c r="B12" s="103"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
       <c r="O12" s="33">
         <v>44</v>
       </c>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="104"/>
-      <c r="R12" s="103"/>
-      <c r="S12" s="104"/>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="103"/>
-      <c r="X12" s="104"/>
-      <c r="Y12" s="103"/>
-      <c r="Z12" s="105"/>
-      <c r="AA12" s="108"/>
-      <c r="AB12" s="108"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="67"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="71"/>
       <c r="AC12" s="34">
         <v>82</v>
       </c>
-      <c r="AD12" s="103"/>
-      <c r="AE12" s="104"/>
-      <c r="AF12" s="103"/>
-      <c r="AG12" s="104"/>
-      <c r="AH12" s="106"/>
-      <c r="AI12" s="106"/>
-      <c r="AJ12" s="106"/>
-      <c r="AK12" s="103"/>
-      <c r="AL12" s="104"/>
-      <c r="AM12" s="103"/>
-      <c r="AN12" s="104"/>
-      <c r="AO12" s="108"/>
-      <c r="AP12" s="108"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="67"/>
+      <c r="AF12" s="66"/>
+      <c r="AG12" s="67"/>
+      <c r="AH12" s="69"/>
+      <c r="AI12" s="69"/>
+      <c r="AJ12" s="69"/>
+      <c r="AK12" s="66"/>
+      <c r="AL12" s="67"/>
+      <c r="AM12" s="66"/>
+      <c r="AN12" s="67"/>
+      <c r="AO12" s="71"/>
+      <c r="AP12" s="71"/>
       <c r="AQ12" s="33">
         <v>120</v>
       </c>
-      <c r="AR12" s="103"/>
-      <c r="AS12" s="104"/>
-      <c r="AT12" s="103"/>
-      <c r="AU12" s="104"/>
-      <c r="AV12" s="106"/>
-      <c r="AW12" s="106"/>
-      <c r="AX12" s="106"/>
-      <c r="AY12" s="103"/>
-      <c r="AZ12" s="104"/>
-      <c r="BA12" s="103"/>
-      <c r="BB12" s="104"/>
-      <c r="BC12" s="108"/>
-      <c r="BD12" s="108"/>
+      <c r="AR12" s="66"/>
+      <c r="AS12" s="67"/>
+      <c r="AT12" s="66"/>
+      <c r="AU12" s="67"/>
+      <c r="AV12" s="69"/>
+      <c r="AW12" s="69"/>
+      <c r="AX12" s="69"/>
+      <c r="AY12" s="66"/>
+      <c r="AZ12" s="67"/>
+      <c r="BA12" s="66"/>
+      <c r="BB12" s="67"/>
+      <c r="BC12" s="71"/>
+      <c r="BD12" s="71"/>
     </row>
     <row r="13" spans="1:56" ht="12.75" customHeight="1">
       <c r="A13" s="35">
         <v>7</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
       <c r="O13" s="33">
         <v>45</v>
       </c>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="103"/>
-      <c r="S13" s="104"/>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="103"/>
-      <c r="X13" s="104"/>
-      <c r="Y13" s="103"/>
-      <c r="Z13" s="105"/>
-      <c r="AA13" s="108"/>
-      <c r="AB13" s="108"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="71"/>
       <c r="AC13" s="34">
         <v>83</v>
       </c>
-      <c r="AD13" s="103"/>
-      <c r="AE13" s="104"/>
-      <c r="AF13" s="103"/>
-      <c r="AG13" s="104"/>
-      <c r="AH13" s="106"/>
-      <c r="AI13" s="106"/>
-      <c r="AJ13" s="106"/>
-      <c r="AK13" s="103"/>
-      <c r="AL13" s="104"/>
-      <c r="AM13" s="103"/>
-      <c r="AN13" s="104"/>
-      <c r="AO13" s="108"/>
-      <c r="AP13" s="108"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="67"/>
+      <c r="AF13" s="66"/>
+      <c r="AG13" s="67"/>
+      <c r="AH13" s="69"/>
+      <c r="AI13" s="69"/>
+      <c r="AJ13" s="69"/>
+      <c r="AK13" s="66"/>
+      <c r="AL13" s="67"/>
+      <c r="AM13" s="66"/>
+      <c r="AN13" s="67"/>
+      <c r="AO13" s="71"/>
+      <c r="AP13" s="71"/>
       <c r="AQ13" s="33">
         <v>121</v>
       </c>
-      <c r="AR13" s="103"/>
-      <c r="AS13" s="104"/>
-      <c r="AT13" s="103"/>
-      <c r="AU13" s="104"/>
-      <c r="AV13" s="106"/>
-      <c r="AW13" s="106"/>
-      <c r="AX13" s="106"/>
-      <c r="AY13" s="103"/>
-      <c r="AZ13" s="104"/>
-      <c r="BA13" s="103"/>
-      <c r="BB13" s="104"/>
-      <c r="BC13" s="108"/>
-      <c r="BD13" s="108"/>
+      <c r="AR13" s="66"/>
+      <c r="AS13" s="67"/>
+      <c r="AT13" s="66"/>
+      <c r="AU13" s="67"/>
+      <c r="AV13" s="69"/>
+      <c r="AW13" s="69"/>
+      <c r="AX13" s="69"/>
+      <c r="AY13" s="66"/>
+      <c r="AZ13" s="67"/>
+      <c r="BA13" s="66"/>
+      <c r="BB13" s="67"/>
+      <c r="BC13" s="71"/>
+      <c r="BD13" s="71"/>
     </row>
     <row r="14" spans="1:56" ht="12.75" customHeight="1">
       <c r="A14" s="35">
         <v>8</v>
       </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
       <c r="O14" s="33">
         <v>46</v>
       </c>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="103"/>
-      <c r="S14" s="104"/>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="103"/>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="103"/>
-      <c r="Z14" s="105"/>
-      <c r="AA14" s="108"/>
-      <c r="AB14" s="108"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="71"/>
+      <c r="AB14" s="71"/>
       <c r="AC14" s="34">
         <v>84</v>
       </c>
-      <c r="AD14" s="103"/>
-      <c r="AE14" s="104"/>
-      <c r="AF14" s="103"/>
-      <c r="AG14" s="104"/>
-      <c r="AH14" s="106"/>
-      <c r="AI14" s="106"/>
-      <c r="AJ14" s="106"/>
-      <c r="AK14" s="103"/>
-      <c r="AL14" s="104"/>
-      <c r="AM14" s="103"/>
-      <c r="AN14" s="104"/>
-      <c r="AO14" s="108"/>
-      <c r="AP14" s="108"/>
+      <c r="AD14" s="66"/>
+      <c r="AE14" s="67"/>
+      <c r="AF14" s="66"/>
+      <c r="AG14" s="67"/>
+      <c r="AH14" s="69"/>
+      <c r="AI14" s="69"/>
+      <c r="AJ14" s="69"/>
+      <c r="AK14" s="66"/>
+      <c r="AL14" s="67"/>
+      <c r="AM14" s="66"/>
+      <c r="AN14" s="67"/>
+      <c r="AO14" s="71"/>
+      <c r="AP14" s="71"/>
       <c r="AQ14" s="33">
         <v>122</v>
       </c>
-      <c r="AR14" s="103"/>
-      <c r="AS14" s="104"/>
-      <c r="AT14" s="103"/>
-      <c r="AU14" s="104"/>
-      <c r="AV14" s="106"/>
-      <c r="AW14" s="106"/>
-      <c r="AX14" s="106"/>
-      <c r="AY14" s="103"/>
-      <c r="AZ14" s="104"/>
-      <c r="BA14" s="103"/>
-      <c r="BB14" s="104"/>
-      <c r="BC14" s="108"/>
-      <c r="BD14" s="108"/>
+      <c r="AR14" s="66"/>
+      <c r="AS14" s="67"/>
+      <c r="AT14" s="66"/>
+      <c r="AU14" s="67"/>
+      <c r="AV14" s="69"/>
+      <c r="AW14" s="69"/>
+      <c r="AX14" s="69"/>
+      <c r="AY14" s="66"/>
+      <c r="AZ14" s="67"/>
+      <c r="BA14" s="66"/>
+      <c r="BB14" s="67"/>
+      <c r="BC14" s="71"/>
+      <c r="BD14" s="71"/>
     </row>
     <row r="15" spans="1:56" ht="13.5" customHeight="1">
       <c r="A15" s="35">
         <v>9</v>
       </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="108"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
       <c r="O15" s="33">
         <v>47</v>
       </c>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="104"/>
-      <c r="R15" s="103"/>
-      <c r="S15" s="104"/>
-      <c r="T15" s="106"/>
-      <c r="U15" s="106"/>
-      <c r="V15" s="106"/>
-      <c r="W15" s="103"/>
-      <c r="X15" s="104"/>
-      <c r="Y15" s="103"/>
-      <c r="Z15" s="105"/>
-      <c r="AA15" s="108"/>
-      <c r="AB15" s="108"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="71"/>
       <c r="AC15" s="34">
         <v>85</v>
       </c>
-      <c r="AD15" s="103"/>
-      <c r="AE15" s="104"/>
-      <c r="AF15" s="103"/>
-      <c r="AG15" s="104"/>
-      <c r="AH15" s="106"/>
-      <c r="AI15" s="106"/>
-      <c r="AJ15" s="106"/>
-      <c r="AK15" s="103"/>
-      <c r="AL15" s="104"/>
-      <c r="AM15" s="103"/>
-      <c r="AN15" s="104"/>
-      <c r="AO15" s="108"/>
-      <c r="AP15" s="108"/>
+      <c r="AD15" s="66"/>
+      <c r="AE15" s="67"/>
+      <c r="AF15" s="66"/>
+      <c r="AG15" s="67"/>
+      <c r="AH15" s="69"/>
+      <c r="AI15" s="69"/>
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="66"/>
+      <c r="AL15" s="67"/>
+      <c r="AM15" s="66"/>
+      <c r="AN15" s="67"/>
+      <c r="AO15" s="71"/>
+      <c r="AP15" s="71"/>
       <c r="AQ15" s="33">
         <v>123</v>
       </c>
-      <c r="AR15" s="103"/>
-      <c r="AS15" s="104"/>
-      <c r="AT15" s="103"/>
-      <c r="AU15" s="104"/>
-      <c r="AV15" s="106"/>
-      <c r="AW15" s="106"/>
-      <c r="AX15" s="106"/>
-      <c r="AY15" s="103"/>
-      <c r="AZ15" s="104"/>
-      <c r="BA15" s="103"/>
-      <c r="BB15" s="104"/>
-      <c r="BC15" s="108"/>
-      <c r="BD15" s="108"/>
+      <c r="AR15" s="66"/>
+      <c r="AS15" s="67"/>
+      <c r="AT15" s="66"/>
+      <c r="AU15" s="67"/>
+      <c r="AV15" s="69"/>
+      <c r="AW15" s="69"/>
+      <c r="AX15" s="69"/>
+      <c r="AY15" s="66"/>
+      <c r="AZ15" s="67"/>
+      <c r="BA15" s="66"/>
+      <c r="BB15" s="67"/>
+      <c r="BC15" s="71"/>
+      <c r="BD15" s="71"/>
     </row>
     <row r="16" spans="1:56" ht="13.5" customHeight="1">
       <c r="A16" s="35">
         <v>10</v>
       </c>
-      <c r="B16" s="103"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="108"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
       <c r="O16" s="33">
         <v>48</v>
       </c>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="103"/>
-      <c r="S16" s="104"/>
-      <c r="T16" s="106"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="106"/>
-      <c r="W16" s="103"/>
-      <c r="X16" s="104"/>
-      <c r="Y16" s="103"/>
-      <c r="Z16" s="105"/>
-      <c r="AA16" s="108"/>
-      <c r="AB16" s="108"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="66"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
       <c r="AC16" s="34">
         <v>86</v>
       </c>
-      <c r="AD16" s="103"/>
-      <c r="AE16" s="104"/>
-      <c r="AF16" s="103"/>
-      <c r="AG16" s="104"/>
-      <c r="AH16" s="106"/>
-      <c r="AI16" s="106"/>
-      <c r="AJ16" s="106"/>
-      <c r="AK16" s="103"/>
-      <c r="AL16" s="104"/>
-      <c r="AM16" s="103"/>
-      <c r="AN16" s="104"/>
-      <c r="AO16" s="108"/>
-      <c r="AP16" s="108"/>
+      <c r="AD16" s="66"/>
+      <c r="AE16" s="67"/>
+      <c r="AF16" s="66"/>
+      <c r="AG16" s="67"/>
+      <c r="AH16" s="69"/>
+      <c r="AI16" s="69"/>
+      <c r="AJ16" s="69"/>
+      <c r="AK16" s="66"/>
+      <c r="AL16" s="67"/>
+      <c r="AM16" s="66"/>
+      <c r="AN16" s="67"/>
+      <c r="AO16" s="71"/>
+      <c r="AP16" s="71"/>
       <c r="AQ16" s="33">
         <v>124</v>
       </c>
-      <c r="AR16" s="103"/>
-      <c r="AS16" s="104"/>
-      <c r="AT16" s="103"/>
-      <c r="AU16" s="104"/>
-      <c r="AV16" s="106"/>
-      <c r="AW16" s="106"/>
-      <c r="AX16" s="106"/>
-      <c r="AY16" s="103"/>
-      <c r="AZ16" s="104"/>
-      <c r="BA16" s="103"/>
-      <c r="BB16" s="104"/>
-      <c r="BC16" s="108"/>
-      <c r="BD16" s="108"/>
+      <c r="AR16" s="66"/>
+      <c r="AS16" s="67"/>
+      <c r="AT16" s="66"/>
+      <c r="AU16" s="67"/>
+      <c r="AV16" s="69"/>
+      <c r="AW16" s="69"/>
+      <c r="AX16" s="69"/>
+      <c r="AY16" s="66"/>
+      <c r="AZ16" s="67"/>
+      <c r="BA16" s="66"/>
+      <c r="BB16" s="67"/>
+      <c r="BC16" s="71"/>
+      <c r="BD16" s="71"/>
     </row>
     <row r="17" spans="1:56" ht="14.25" customHeight="1">
       <c r="A17" s="35">
         <v>11</v>
       </c>
-      <c r="B17" s="103"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="108"/>
-      <c r="N17" s="108"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
       <c r="O17" s="33">
         <v>49</v>
       </c>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="104"/>
-      <c r="R17" s="103"/>
-      <c r="S17" s="104"/>
-      <c r="T17" s="106"/>
-      <c r="U17" s="106"/>
-      <c r="V17" s="106"/>
-      <c r="W17" s="103"/>
-      <c r="X17" s="104"/>
-      <c r="Y17" s="103"/>
-      <c r="Z17" s="105"/>
-      <c r="AA17" s="108"/>
-      <c r="AB17" s="108"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="67"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="71"/>
+      <c r="AB17" s="71"/>
       <c r="AC17" s="34">
         <v>87</v>
       </c>
-      <c r="AD17" s="103"/>
-      <c r="AE17" s="104"/>
-      <c r="AF17" s="103"/>
-      <c r="AG17" s="104"/>
-      <c r="AH17" s="106"/>
-      <c r="AI17" s="106"/>
-      <c r="AJ17" s="106"/>
-      <c r="AK17" s="103"/>
-      <c r="AL17" s="104"/>
-      <c r="AM17" s="103"/>
-      <c r="AN17" s="104"/>
-      <c r="AO17" s="108"/>
-      <c r="AP17" s="108"/>
+      <c r="AD17" s="66"/>
+      <c r="AE17" s="67"/>
+      <c r="AF17" s="66"/>
+      <c r="AG17" s="67"/>
+      <c r="AH17" s="69"/>
+      <c r="AI17" s="69"/>
+      <c r="AJ17" s="69"/>
+      <c r="AK17" s="66"/>
+      <c r="AL17" s="67"/>
+      <c r="AM17" s="66"/>
+      <c r="AN17" s="67"/>
+      <c r="AO17" s="71"/>
+      <c r="AP17" s="71"/>
       <c r="AQ17" s="33">
         <v>125</v>
       </c>
-      <c r="AR17" s="103"/>
-      <c r="AS17" s="104"/>
-      <c r="AT17" s="103"/>
-      <c r="AU17" s="104"/>
-      <c r="AV17" s="106"/>
-      <c r="AW17" s="106"/>
-      <c r="AX17" s="106"/>
-      <c r="AY17" s="103"/>
-      <c r="AZ17" s="104"/>
-      <c r="BA17" s="103"/>
-      <c r="BB17" s="104"/>
-      <c r="BC17" s="108"/>
-      <c r="BD17" s="108"/>
+      <c r="AR17" s="66"/>
+      <c r="AS17" s="67"/>
+      <c r="AT17" s="66"/>
+      <c r="AU17" s="67"/>
+      <c r="AV17" s="69"/>
+      <c r="AW17" s="69"/>
+      <c r="AX17" s="69"/>
+      <c r="AY17" s="66"/>
+      <c r="AZ17" s="67"/>
+      <c r="BA17" s="66"/>
+      <c r="BB17" s="67"/>
+      <c r="BC17" s="71"/>
+      <c r="BD17" s="71"/>
     </row>
     <row r="18" spans="1:56" ht="14.25" customHeight="1">
       <c r="A18" s="35">
         <v>12</v>
       </c>
-      <c r="B18" s="103"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="108"/>
-      <c r="N18" s="108"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
       <c r="O18" s="33">
         <v>50</v>
       </c>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="104"/>
-      <c r="R18" s="103"/>
-      <c r="S18" s="104"/>
-      <c r="T18" s="106"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="106"/>
-      <c r="W18" s="103"/>
-      <c r="X18" s="104"/>
-      <c r="Y18" s="103"/>
-      <c r="Z18" s="105"/>
-      <c r="AA18" s="108"/>
-      <c r="AB18" s="108"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="66"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="71"/>
       <c r="AC18" s="34">
         <v>88</v>
       </c>
-      <c r="AD18" s="103"/>
-      <c r="AE18" s="104"/>
-      <c r="AF18" s="103"/>
-      <c r="AG18" s="104"/>
-      <c r="AH18" s="106"/>
-      <c r="AI18" s="106"/>
-      <c r="AJ18" s="106"/>
-      <c r="AK18" s="103"/>
-      <c r="AL18" s="104"/>
-      <c r="AM18" s="103"/>
-      <c r="AN18" s="104"/>
-      <c r="AO18" s="108"/>
-      <c r="AP18" s="108"/>
+      <c r="AD18" s="66"/>
+      <c r="AE18" s="67"/>
+      <c r="AF18" s="66"/>
+      <c r="AG18" s="67"/>
+      <c r="AH18" s="69"/>
+      <c r="AI18" s="69"/>
+      <c r="AJ18" s="69"/>
+      <c r="AK18" s="66"/>
+      <c r="AL18" s="67"/>
+      <c r="AM18" s="66"/>
+      <c r="AN18" s="67"/>
+      <c r="AO18" s="71"/>
+      <c r="AP18" s="71"/>
       <c r="AQ18" s="33">
         <v>126</v>
       </c>
-      <c r="AR18" s="103"/>
-      <c r="AS18" s="104"/>
-      <c r="AT18" s="103"/>
-      <c r="AU18" s="104"/>
-      <c r="AV18" s="106"/>
-      <c r="AW18" s="106"/>
-      <c r="AX18" s="106"/>
-      <c r="AY18" s="103"/>
-      <c r="AZ18" s="104"/>
-      <c r="BA18" s="103"/>
-      <c r="BB18" s="104"/>
-      <c r="BC18" s="108"/>
-      <c r="BD18" s="108"/>
+      <c r="AR18" s="66"/>
+      <c r="AS18" s="67"/>
+      <c r="AT18" s="66"/>
+      <c r="AU18" s="67"/>
+      <c r="AV18" s="69"/>
+      <c r="AW18" s="69"/>
+      <c r="AX18" s="69"/>
+      <c r="AY18" s="66"/>
+      <c r="AZ18" s="67"/>
+      <c r="BA18" s="66"/>
+      <c r="BB18" s="67"/>
+      <c r="BC18" s="71"/>
+      <c r="BD18" s="71"/>
     </row>
     <row r="19" spans="1:56" ht="14.25" customHeight="1">
       <c r="A19" s="35">
         <v>13</v>
       </c>
-      <c r="B19" s="103"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="108"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
       <c r="O19" s="33">
         <v>51</v>
       </c>
-      <c r="P19" s="103"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="103"/>
-      <c r="S19" s="104"/>
-      <c r="T19" s="106"/>
-      <c r="U19" s="106"/>
-      <c r="V19" s="106"/>
-      <c r="W19" s="103"/>
-      <c r="X19" s="104"/>
-      <c r="Y19" s="103"/>
-      <c r="Z19" s="105"/>
-      <c r="AA19" s="108"/>
-      <c r="AB19" s="108"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="67"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="68"/>
+      <c r="AA19" s="71"/>
+      <c r="AB19" s="71"/>
       <c r="AC19" s="34">
         <v>89</v>
       </c>
-      <c r="AD19" s="103"/>
-      <c r="AE19" s="104"/>
-      <c r="AF19" s="103"/>
-      <c r="AG19" s="104"/>
-      <c r="AH19" s="106"/>
-      <c r="AI19" s="106"/>
-      <c r="AJ19" s="106"/>
-      <c r="AK19" s="103"/>
-      <c r="AL19" s="104"/>
-      <c r="AM19" s="103"/>
-      <c r="AN19" s="104"/>
-      <c r="AO19" s="108"/>
-      <c r="AP19" s="108"/>
+      <c r="AD19" s="66"/>
+      <c r="AE19" s="67"/>
+      <c r="AF19" s="66"/>
+      <c r="AG19" s="67"/>
+      <c r="AH19" s="69"/>
+      <c r="AI19" s="69"/>
+      <c r="AJ19" s="69"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="67"/>
+      <c r="AM19" s="66"/>
+      <c r="AN19" s="67"/>
+      <c r="AO19" s="71"/>
+      <c r="AP19" s="71"/>
       <c r="AQ19" s="33">
         <v>127</v>
       </c>
-      <c r="AR19" s="103"/>
-      <c r="AS19" s="104"/>
-      <c r="AT19" s="103"/>
-      <c r="AU19" s="104"/>
-      <c r="AV19" s="106"/>
-      <c r="AW19" s="106"/>
-      <c r="AX19" s="106"/>
-      <c r="AY19" s="103"/>
-      <c r="AZ19" s="104"/>
-      <c r="BA19" s="103"/>
-      <c r="BB19" s="104"/>
-      <c r="BC19" s="108"/>
-      <c r="BD19" s="108"/>
+      <c r="AR19" s="66"/>
+      <c r="AS19" s="67"/>
+      <c r="AT19" s="66"/>
+      <c r="AU19" s="67"/>
+      <c r="AV19" s="69"/>
+      <c r="AW19" s="69"/>
+      <c r="AX19" s="69"/>
+      <c r="AY19" s="66"/>
+      <c r="AZ19" s="67"/>
+      <c r="BA19" s="66"/>
+      <c r="BB19" s="67"/>
+      <c r="BC19" s="71"/>
+      <c r="BD19" s="71"/>
     </row>
     <row r="20" spans="1:56" ht="14.25" customHeight="1">
       <c r="A20" s="35">
         <v>14</v>
       </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="104"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="108"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
       <c r="O20" s="33">
         <v>52</v>
       </c>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="104"/>
-      <c r="R20" s="103"/>
-      <c r="S20" s="104"/>
-      <c r="T20" s="106"/>
-      <c r="U20" s="106"/>
-      <c r="V20" s="106"/>
-      <c r="W20" s="103"/>
-      <c r="X20" s="104"/>
-      <c r="Y20" s="103"/>
-      <c r="Z20" s="105"/>
-      <c r="AA20" s="108"/>
-      <c r="AB20" s="108"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="67"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
       <c r="AC20" s="34">
         <v>90</v>
       </c>
-      <c r="AD20" s="103"/>
-      <c r="AE20" s="104"/>
-      <c r="AF20" s="103"/>
-      <c r="AG20" s="104"/>
-      <c r="AH20" s="106"/>
-      <c r="AI20" s="106"/>
-      <c r="AJ20" s="106"/>
-      <c r="AK20" s="103"/>
-      <c r="AL20" s="104"/>
-      <c r="AM20" s="103"/>
-      <c r="AN20" s="104"/>
-      <c r="AO20" s="108"/>
-      <c r="AP20" s="108"/>
+      <c r="AD20" s="66"/>
+      <c r="AE20" s="67"/>
+      <c r="AF20" s="66"/>
+      <c r="AG20" s="67"/>
+      <c r="AH20" s="69"/>
+      <c r="AI20" s="69"/>
+      <c r="AJ20" s="69"/>
+      <c r="AK20" s="66"/>
+      <c r="AL20" s="67"/>
+      <c r="AM20" s="66"/>
+      <c r="AN20" s="67"/>
+      <c r="AO20" s="71"/>
+      <c r="AP20" s="71"/>
       <c r="AQ20" s="33">
         <v>128</v>
       </c>
-      <c r="AR20" s="103"/>
-      <c r="AS20" s="104"/>
-      <c r="AT20" s="103"/>
-      <c r="AU20" s="104"/>
-      <c r="AV20" s="106"/>
-      <c r="AW20" s="106"/>
-      <c r="AX20" s="106"/>
-      <c r="AY20" s="103"/>
-      <c r="AZ20" s="104"/>
-      <c r="BA20" s="103"/>
-      <c r="BB20" s="104"/>
-      <c r="BC20" s="108"/>
-      <c r="BD20" s="108"/>
+      <c r="AR20" s="66"/>
+      <c r="AS20" s="67"/>
+      <c r="AT20" s="66"/>
+      <c r="AU20" s="67"/>
+      <c r="AV20" s="69"/>
+      <c r="AW20" s="69"/>
+      <c r="AX20" s="69"/>
+      <c r="AY20" s="66"/>
+      <c r="AZ20" s="67"/>
+      <c r="BA20" s="66"/>
+      <c r="BB20" s="67"/>
+      <c r="BC20" s="71"/>
+      <c r="BD20" s="71"/>
     </row>
     <row r="21" spans="1:56" ht="14.25" customHeight="1">
       <c r="A21" s="35">
         <v>15</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="104"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="108"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
       <c r="O21" s="33">
         <v>53</v>
       </c>
-      <c r="P21" s="103"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="103"/>
-      <c r="S21" s="104"/>
-      <c r="T21" s="106"/>
-      <c r="U21" s="106"/>
-      <c r="V21" s="106"/>
-      <c r="W21" s="103"/>
-      <c r="X21" s="104"/>
-      <c r="Y21" s="103"/>
-      <c r="Z21" s="105"/>
-      <c r="AA21" s="108"/>
-      <c r="AB21" s="108"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="67"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
       <c r="AC21" s="34">
         <v>91</v>
       </c>
-      <c r="AD21" s="103"/>
-      <c r="AE21" s="104"/>
-      <c r="AF21" s="103"/>
-      <c r="AG21" s="104"/>
-      <c r="AH21" s="106"/>
-      <c r="AI21" s="106"/>
-      <c r="AJ21" s="106"/>
-      <c r="AK21" s="103"/>
-      <c r="AL21" s="104"/>
-      <c r="AM21" s="103"/>
-      <c r="AN21" s="104"/>
-      <c r="AO21" s="108"/>
-      <c r="AP21" s="108"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="67"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="67"/>
+      <c r="AH21" s="69"/>
+      <c r="AI21" s="69"/>
+      <c r="AJ21" s="69"/>
+      <c r="AK21" s="66"/>
+      <c r="AL21" s="67"/>
+      <c r="AM21" s="66"/>
+      <c r="AN21" s="67"/>
+      <c r="AO21" s="71"/>
+      <c r="AP21" s="71"/>
       <c r="AQ21" s="33">
         <v>129</v>
       </c>
-      <c r="AR21" s="103"/>
-      <c r="AS21" s="104"/>
-      <c r="AT21" s="103"/>
-      <c r="AU21" s="104"/>
-      <c r="AV21" s="106"/>
-      <c r="AW21" s="106"/>
-      <c r="AX21" s="106"/>
-      <c r="AY21" s="103"/>
-      <c r="AZ21" s="104"/>
-      <c r="BA21" s="103"/>
-      <c r="BB21" s="104"/>
-      <c r="BC21" s="108"/>
-      <c r="BD21" s="108"/>
+      <c r="AR21" s="66"/>
+      <c r="AS21" s="67"/>
+      <c r="AT21" s="66"/>
+      <c r="AU21" s="67"/>
+      <c r="AV21" s="69"/>
+      <c r="AW21" s="69"/>
+      <c r="AX21" s="69"/>
+      <c r="AY21" s="66"/>
+      <c r="AZ21" s="67"/>
+      <c r="BA21" s="66"/>
+      <c r="BB21" s="67"/>
+      <c r="BC21" s="71"/>
+      <c r="BD21" s="71"/>
     </row>
     <row r="22" spans="1:56" ht="14.25" customHeight="1">
       <c r="A22" s="35">
         <v>16</v>
       </c>
-      <c r="B22" s="103"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="104"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="104"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="108"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
       <c r="O22" s="33">
         <v>54</v>
       </c>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="103"/>
-      <c r="S22" s="104"/>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="106"/>
-      <c r="W22" s="103"/>
-      <c r="X22" s="104"/>
-      <c r="Y22" s="103"/>
-      <c r="Z22" s="105"/>
-      <c r="AA22" s="108"/>
-      <c r="AB22" s="108"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="67"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="68"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="71"/>
       <c r="AC22" s="34">
         <v>92</v>
       </c>
-      <c r="AD22" s="103"/>
-      <c r="AE22" s="104"/>
-      <c r="AF22" s="103"/>
-      <c r="AG22" s="104"/>
-      <c r="AH22" s="106"/>
-      <c r="AI22" s="106"/>
-      <c r="AJ22" s="106"/>
-      <c r="AK22" s="103"/>
-      <c r="AL22" s="104"/>
-      <c r="AM22" s="103"/>
-      <c r="AN22" s="104"/>
-      <c r="AO22" s="108"/>
-      <c r="AP22" s="108"/>
+      <c r="AD22" s="66"/>
+      <c r="AE22" s="67"/>
+      <c r="AF22" s="66"/>
+      <c r="AG22" s="67"/>
+      <c r="AH22" s="69"/>
+      <c r="AI22" s="69"/>
+      <c r="AJ22" s="69"/>
+      <c r="AK22" s="66"/>
+      <c r="AL22" s="67"/>
+      <c r="AM22" s="66"/>
+      <c r="AN22" s="67"/>
+      <c r="AO22" s="71"/>
+      <c r="AP22" s="71"/>
       <c r="AQ22" s="33">
         <v>130</v>
       </c>
-      <c r="AR22" s="103"/>
-      <c r="AS22" s="104"/>
-      <c r="AT22" s="103"/>
-      <c r="AU22" s="104"/>
-      <c r="AV22" s="106"/>
-      <c r="AW22" s="106"/>
-      <c r="AX22" s="106"/>
-      <c r="AY22" s="103"/>
-      <c r="AZ22" s="104"/>
-      <c r="BA22" s="103"/>
-      <c r="BB22" s="104"/>
-      <c r="BC22" s="108"/>
-      <c r="BD22" s="108"/>
+      <c r="AR22" s="66"/>
+      <c r="AS22" s="67"/>
+      <c r="AT22" s="66"/>
+      <c r="AU22" s="67"/>
+      <c r="AV22" s="69"/>
+      <c r="AW22" s="69"/>
+      <c r="AX22" s="69"/>
+      <c r="AY22" s="66"/>
+      <c r="AZ22" s="67"/>
+      <c r="BA22" s="66"/>
+      <c r="BB22" s="67"/>
+      <c r="BC22" s="71"/>
+      <c r="BD22" s="71"/>
     </row>
     <row r="23" spans="1:56" ht="14.25" customHeight="1">
       <c r="A23" s="35">
         <v>17</v>
       </c>
-      <c r="B23" s="103"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="108"/>
-      <c r="N23" s="108"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
       <c r="O23" s="33">
         <v>55</v>
       </c>
-      <c r="P23" s="103"/>
-      <c r="Q23" s="104"/>
-      <c r="R23" s="103"/>
-      <c r="S23" s="104"/>
-      <c r="T23" s="106"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="106"/>
-      <c r="W23" s="103"/>
-      <c r="X23" s="104"/>
-      <c r="Y23" s="103"/>
-      <c r="Z23" s="105"/>
-      <c r="AA23" s="108"/>
-      <c r="AB23" s="108"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="69"/>
+      <c r="U23" s="69"/>
+      <c r="V23" s="69"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="68"/>
+      <c r="AA23" s="71"/>
+      <c r="AB23" s="71"/>
       <c r="AC23" s="34">
         <v>93</v>
       </c>
-      <c r="AD23" s="103"/>
-      <c r="AE23" s="104"/>
-      <c r="AF23" s="103"/>
-      <c r="AG23" s="104"/>
-      <c r="AH23" s="106"/>
-      <c r="AI23" s="106"/>
-      <c r="AJ23" s="106"/>
-      <c r="AK23" s="103"/>
-      <c r="AL23" s="104"/>
-      <c r="AM23" s="103"/>
-      <c r="AN23" s="104"/>
-      <c r="AO23" s="108"/>
-      <c r="AP23" s="108"/>
+      <c r="AD23" s="66"/>
+      <c r="AE23" s="67"/>
+      <c r="AF23" s="66"/>
+      <c r="AG23" s="67"/>
+      <c r="AH23" s="69"/>
+      <c r="AI23" s="69"/>
+      <c r="AJ23" s="69"/>
+      <c r="AK23" s="66"/>
+      <c r="AL23" s="67"/>
+      <c r="AM23" s="66"/>
+      <c r="AN23" s="67"/>
+      <c r="AO23" s="71"/>
+      <c r="AP23" s="71"/>
       <c r="AQ23" s="33">
         <v>131</v>
       </c>
-      <c r="AR23" s="103"/>
-      <c r="AS23" s="104"/>
-      <c r="AT23" s="103"/>
-      <c r="AU23" s="104"/>
-      <c r="AV23" s="106"/>
-      <c r="AW23" s="106"/>
-      <c r="AX23" s="106"/>
-      <c r="AY23" s="103"/>
-      <c r="AZ23" s="104"/>
-      <c r="BA23" s="103"/>
-      <c r="BB23" s="104"/>
-      <c r="BC23" s="108"/>
-      <c r="BD23" s="108"/>
+      <c r="AR23" s="66"/>
+      <c r="AS23" s="67"/>
+      <c r="AT23" s="66"/>
+      <c r="AU23" s="67"/>
+      <c r="AV23" s="69"/>
+      <c r="AW23" s="69"/>
+      <c r="AX23" s="69"/>
+      <c r="AY23" s="66"/>
+      <c r="AZ23" s="67"/>
+      <c r="BA23" s="66"/>
+      <c r="BB23" s="67"/>
+      <c r="BC23" s="71"/>
+      <c r="BD23" s="71"/>
     </row>
     <row r="24" spans="1:56" ht="14.25" customHeight="1">
       <c r="A24" s="35">
         <v>18</v>
       </c>
-      <c r="B24" s="103"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="108"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
       <c r="O24" s="33">
         <v>56</v>
       </c>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="104"/>
-      <c r="R24" s="103"/>
-      <c r="S24" s="104"/>
-      <c r="T24" s="106"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="106"/>
-      <c r="W24" s="103"/>
-      <c r="X24" s="104"/>
-      <c r="Y24" s="103"/>
-      <c r="Z24" s="105"/>
-      <c r="AA24" s="108"/>
-      <c r="AB24" s="108"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="66"/>
+      <c r="Z24" s="68"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="71"/>
       <c r="AC24" s="34">
         <v>94</v>
       </c>
-      <c r="AD24" s="103"/>
-      <c r="AE24" s="104"/>
-      <c r="AF24" s="103"/>
-      <c r="AG24" s="104"/>
-      <c r="AH24" s="106"/>
-      <c r="AI24" s="106"/>
-      <c r="AJ24" s="106"/>
-      <c r="AK24" s="103"/>
-      <c r="AL24" s="104"/>
-      <c r="AM24" s="103"/>
-      <c r="AN24" s="104"/>
-      <c r="AO24" s="108"/>
-      <c r="AP24" s="108"/>
+      <c r="AD24" s="66"/>
+      <c r="AE24" s="67"/>
+      <c r="AF24" s="66"/>
+      <c r="AG24" s="67"/>
+      <c r="AH24" s="69"/>
+      <c r="AI24" s="69"/>
+      <c r="AJ24" s="69"/>
+      <c r="AK24" s="66"/>
+      <c r="AL24" s="67"/>
+      <c r="AM24" s="66"/>
+      <c r="AN24" s="67"/>
+      <c r="AO24" s="71"/>
+      <c r="AP24" s="71"/>
       <c r="AQ24" s="33">
         <v>132</v>
       </c>
-      <c r="AR24" s="103"/>
-      <c r="AS24" s="104"/>
-      <c r="AT24" s="103"/>
-      <c r="AU24" s="104"/>
-      <c r="AV24" s="106"/>
-      <c r="AW24" s="106"/>
-      <c r="AX24" s="106"/>
-      <c r="AY24" s="103"/>
-      <c r="AZ24" s="104"/>
-      <c r="BA24" s="103"/>
-      <c r="BB24" s="104"/>
-      <c r="BC24" s="108"/>
-      <c r="BD24" s="108"/>
+      <c r="AR24" s="66"/>
+      <c r="AS24" s="67"/>
+      <c r="AT24" s="66"/>
+      <c r="AU24" s="67"/>
+      <c r="AV24" s="69"/>
+      <c r="AW24" s="69"/>
+      <c r="AX24" s="69"/>
+      <c r="AY24" s="66"/>
+      <c r="AZ24" s="67"/>
+      <c r="BA24" s="66"/>
+      <c r="BB24" s="67"/>
+      <c r="BC24" s="71"/>
+      <c r="BD24" s="71"/>
     </row>
     <row r="25" spans="1:56" ht="14.25" customHeight="1">
       <c r="A25" s="35">
         <v>19</v>
       </c>
-      <c r="B25" s="103"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="104"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="108"/>
-      <c r="N25" s="108"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
       <c r="O25" s="33">
         <v>57</v>
       </c>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="104"/>
-      <c r="R25" s="103"/>
-      <c r="S25" s="104"/>
-      <c r="T25" s="106"/>
-      <c r="U25" s="106"/>
-      <c r="V25" s="106"/>
-      <c r="W25" s="103"/>
-      <c r="X25" s="104"/>
-      <c r="Y25" s="103"/>
-      <c r="Z25" s="105"/>
-      <c r="AA25" s="108"/>
-      <c r="AB25" s="108"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="67"/>
+      <c r="Y25" s="66"/>
+      <c r="Z25" s="68"/>
+      <c r="AA25" s="71"/>
+      <c r="AB25" s="71"/>
       <c r="AC25" s="34">
         <v>95</v>
       </c>
-      <c r="AD25" s="103"/>
-      <c r="AE25" s="104"/>
-      <c r="AF25" s="103"/>
-      <c r="AG25" s="104"/>
-      <c r="AH25" s="106"/>
-      <c r="AI25" s="106"/>
-      <c r="AJ25" s="106"/>
-      <c r="AK25" s="103"/>
-      <c r="AL25" s="104"/>
-      <c r="AM25" s="103"/>
-      <c r="AN25" s="104"/>
-      <c r="AO25" s="108"/>
-      <c r="AP25" s="108"/>
+      <c r="AD25" s="66"/>
+      <c r="AE25" s="67"/>
+      <c r="AF25" s="66"/>
+      <c r="AG25" s="67"/>
+      <c r="AH25" s="69"/>
+      <c r="AI25" s="69"/>
+      <c r="AJ25" s="69"/>
+      <c r="AK25" s="66"/>
+      <c r="AL25" s="67"/>
+      <c r="AM25" s="66"/>
+      <c r="AN25" s="67"/>
+      <c r="AO25" s="71"/>
+      <c r="AP25" s="71"/>
       <c r="AQ25" s="33">
         <v>133</v>
       </c>
-      <c r="AR25" s="103"/>
-      <c r="AS25" s="104"/>
-      <c r="AT25" s="103"/>
-      <c r="AU25" s="104"/>
-      <c r="AV25" s="106"/>
-      <c r="AW25" s="106"/>
-      <c r="AX25" s="106"/>
-      <c r="AY25" s="103"/>
-      <c r="AZ25" s="104"/>
-      <c r="BA25" s="103"/>
-      <c r="BB25" s="104"/>
-      <c r="BC25" s="108"/>
-      <c r="BD25" s="108"/>
+      <c r="AR25" s="66"/>
+      <c r="AS25" s="67"/>
+      <c r="AT25" s="66"/>
+      <c r="AU25" s="67"/>
+      <c r="AV25" s="69"/>
+      <c r="AW25" s="69"/>
+      <c r="AX25" s="69"/>
+      <c r="AY25" s="66"/>
+      <c r="AZ25" s="67"/>
+      <c r="BA25" s="66"/>
+      <c r="BB25" s="67"/>
+      <c r="BC25" s="71"/>
+      <c r="BD25" s="71"/>
     </row>
     <row r="26" spans="1:56" ht="15.75" customHeight="1">
       <c r="A26" s="35">
         <v>20</v>
       </c>
-      <c r="B26" s="103"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="108"/>
-      <c r="N26" s="108"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
       <c r="O26" s="33">
         <v>58</v>
       </c>
-      <c r="P26" s="103"/>
-      <c r="Q26" s="104"/>
-      <c r="R26" s="103"/>
-      <c r="S26" s="104"/>
-      <c r="T26" s="106"/>
-      <c r="U26" s="106"/>
-      <c r="V26" s="106"/>
-      <c r="W26" s="103"/>
-      <c r="X26" s="104"/>
-      <c r="Y26" s="103"/>
-      <c r="Z26" s="105"/>
-      <c r="AA26" s="108"/>
-      <c r="AB26" s="108"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="67"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="71"/>
+      <c r="AB26" s="71"/>
       <c r="AC26" s="34">
         <v>96</v>
       </c>
-      <c r="AD26" s="103"/>
-      <c r="AE26" s="104"/>
-      <c r="AF26" s="103"/>
-      <c r="AG26" s="104"/>
-      <c r="AH26" s="106"/>
-      <c r="AI26" s="106"/>
-      <c r="AJ26" s="106"/>
-      <c r="AK26" s="103"/>
-      <c r="AL26" s="104"/>
-      <c r="AM26" s="103"/>
-      <c r="AN26" s="104"/>
-      <c r="AO26" s="108"/>
-      <c r="AP26" s="108"/>
+      <c r="AD26" s="66"/>
+      <c r="AE26" s="67"/>
+      <c r="AF26" s="66"/>
+      <c r="AG26" s="67"/>
+      <c r="AH26" s="69"/>
+      <c r="AI26" s="69"/>
+      <c r="AJ26" s="69"/>
+      <c r="AK26" s="66"/>
+      <c r="AL26" s="67"/>
+      <c r="AM26" s="66"/>
+      <c r="AN26" s="67"/>
+      <c r="AO26" s="71"/>
+      <c r="AP26" s="71"/>
       <c r="AQ26" s="33">
         <v>134</v>
       </c>
-      <c r="AR26" s="103"/>
-      <c r="AS26" s="104"/>
-      <c r="AT26" s="103"/>
-      <c r="AU26" s="104"/>
-      <c r="AV26" s="106"/>
-      <c r="AW26" s="106"/>
-      <c r="AX26" s="106"/>
-      <c r="AY26" s="103"/>
-      <c r="AZ26" s="104"/>
-      <c r="BA26" s="103"/>
-      <c r="BB26" s="104"/>
-      <c r="BC26" s="108"/>
-      <c r="BD26" s="108"/>
+      <c r="AR26" s="66"/>
+      <c r="AS26" s="67"/>
+      <c r="AT26" s="66"/>
+      <c r="AU26" s="67"/>
+      <c r="AV26" s="69"/>
+      <c r="AW26" s="69"/>
+      <c r="AX26" s="69"/>
+      <c r="AY26" s="66"/>
+      <c r="AZ26" s="67"/>
+      <c r="BA26" s="66"/>
+      <c r="BB26" s="67"/>
+      <c r="BC26" s="71"/>
+      <c r="BD26" s="71"/>
     </row>
     <row r="27" spans="1:56" ht="15" customHeight="1">
       <c r="A27" s="35">
         <v>21</v>
       </c>
-      <c r="B27" s="103"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="108"/>
-      <c r="N27" s="108"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
       <c r="O27" s="33">
         <v>59</v>
       </c>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="104"/>
-      <c r="R27" s="103"/>
-      <c r="S27" s="104"/>
-      <c r="T27" s="106"/>
-      <c r="U27" s="106"/>
-      <c r="V27" s="106"/>
-      <c r="W27" s="103"/>
-      <c r="X27" s="104"/>
-      <c r="Y27" s="103"/>
-      <c r="Z27" s="105"/>
-      <c r="AA27" s="108"/>
-      <c r="AB27" s="108"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="67"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="67"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="67"/>
+      <c r="Y27" s="66"/>
+      <c r="Z27" s="68"/>
+      <c r="AA27" s="71"/>
+      <c r="AB27" s="71"/>
       <c r="AC27" s="34">
         <v>97</v>
       </c>
-      <c r="AD27" s="103"/>
-      <c r="AE27" s="104"/>
-      <c r="AF27" s="103"/>
-      <c r="AG27" s="104"/>
-      <c r="AH27" s="106"/>
-      <c r="AI27" s="106"/>
-      <c r="AJ27" s="106"/>
-      <c r="AK27" s="103"/>
-      <c r="AL27" s="104"/>
-      <c r="AM27" s="103"/>
-      <c r="AN27" s="104"/>
-      <c r="AO27" s="108"/>
-      <c r="AP27" s="108"/>
+      <c r="AD27" s="66"/>
+      <c r="AE27" s="67"/>
+      <c r="AF27" s="66"/>
+      <c r="AG27" s="67"/>
+      <c r="AH27" s="69"/>
+      <c r="AI27" s="69"/>
+      <c r="AJ27" s="69"/>
+      <c r="AK27" s="66"/>
+      <c r="AL27" s="67"/>
+      <c r="AM27" s="66"/>
+      <c r="AN27" s="67"/>
+      <c r="AO27" s="71"/>
+      <c r="AP27" s="71"/>
       <c r="AQ27" s="33">
         <v>135</v>
       </c>
-      <c r="AR27" s="103"/>
-      <c r="AS27" s="104"/>
-      <c r="AT27" s="103"/>
-      <c r="AU27" s="104"/>
-      <c r="AV27" s="106"/>
-      <c r="AW27" s="106"/>
-      <c r="AX27" s="106"/>
-      <c r="AY27" s="103"/>
-      <c r="AZ27" s="104"/>
-      <c r="BA27" s="103"/>
-      <c r="BB27" s="104"/>
-      <c r="BC27" s="108"/>
-      <c r="BD27" s="108"/>
+      <c r="AR27" s="66"/>
+      <c r="AS27" s="67"/>
+      <c r="AT27" s="66"/>
+      <c r="AU27" s="67"/>
+      <c r="AV27" s="69"/>
+      <c r="AW27" s="69"/>
+      <c r="AX27" s="69"/>
+      <c r="AY27" s="66"/>
+      <c r="AZ27" s="67"/>
+      <c r="BA27" s="66"/>
+      <c r="BB27" s="67"/>
+      <c r="BC27" s="71"/>
+      <c r="BD27" s="71"/>
     </row>
     <row r="28" spans="1:56" ht="15" customHeight="1">
       <c r="A28" s="35">
         <v>22</v>
       </c>
-      <c r="B28" s="103"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="108"/>
-      <c r="N28" s="108"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
       <c r="O28" s="33">
         <v>60</v>
       </c>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="104"/>
-      <c r="R28" s="103"/>
-      <c r="S28" s="104"/>
-      <c r="T28" s="106"/>
-      <c r="U28" s="106"/>
-      <c r="V28" s="106"/>
-      <c r="W28" s="103"/>
-      <c r="X28" s="104"/>
-      <c r="Y28" s="103"/>
-      <c r="Z28" s="105"/>
-      <c r="AA28" s="108"/>
-      <c r="AB28" s="108"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="66"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="69"/>
+      <c r="U28" s="69"/>
+      <c r="V28" s="69"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="67"/>
+      <c r="Y28" s="66"/>
+      <c r="Z28" s="68"/>
+      <c r="AA28" s="71"/>
+      <c r="AB28" s="71"/>
       <c r="AC28" s="34">
         <v>98</v>
       </c>
-      <c r="AD28" s="103"/>
-      <c r="AE28" s="104"/>
-      <c r="AF28" s="103"/>
-      <c r="AG28" s="104"/>
-      <c r="AH28" s="106"/>
-      <c r="AI28" s="106"/>
-      <c r="AJ28" s="106"/>
-      <c r="AK28" s="103"/>
-      <c r="AL28" s="104"/>
-      <c r="AM28" s="103"/>
-      <c r="AN28" s="104"/>
-      <c r="AO28" s="108"/>
-      <c r="AP28" s="108"/>
+      <c r="AD28" s="66"/>
+      <c r="AE28" s="67"/>
+      <c r="AF28" s="66"/>
+      <c r="AG28" s="67"/>
+      <c r="AH28" s="69"/>
+      <c r="AI28" s="69"/>
+      <c r="AJ28" s="69"/>
+      <c r="AK28" s="66"/>
+      <c r="AL28" s="67"/>
+      <c r="AM28" s="66"/>
+      <c r="AN28" s="67"/>
+      <c r="AO28" s="71"/>
+      <c r="AP28" s="71"/>
       <c r="AQ28" s="33">
         <v>136</v>
       </c>
-      <c r="AR28" s="103"/>
-      <c r="AS28" s="104"/>
-      <c r="AT28" s="103"/>
-      <c r="AU28" s="104"/>
-      <c r="AV28" s="106"/>
-      <c r="AW28" s="106"/>
-      <c r="AX28" s="106"/>
-      <c r="AY28" s="103"/>
-      <c r="AZ28" s="104"/>
-      <c r="BA28" s="103"/>
-      <c r="BB28" s="104"/>
-      <c r="BC28" s="108"/>
-      <c r="BD28" s="108"/>
+      <c r="AR28" s="66"/>
+      <c r="AS28" s="67"/>
+      <c r="AT28" s="66"/>
+      <c r="AU28" s="67"/>
+      <c r="AV28" s="69"/>
+      <c r="AW28" s="69"/>
+      <c r="AX28" s="69"/>
+      <c r="AY28" s="66"/>
+      <c r="AZ28" s="67"/>
+      <c r="BA28" s="66"/>
+      <c r="BB28" s="67"/>
+      <c r="BC28" s="71"/>
+      <c r="BD28" s="71"/>
     </row>
     <row r="29" spans="1:56" ht="13.5" customHeight="1">
       <c r="A29" s="35">
         <v>23</v>
       </c>
-      <c r="B29" s="103"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="104"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="104"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
       <c r="O29" s="33">
         <v>61</v>
       </c>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="104"/>
-      <c r="R29" s="103"/>
-      <c r="S29" s="104"/>
-      <c r="T29" s="106"/>
-      <c r="U29" s="106"/>
-      <c r="V29" s="106"/>
-      <c r="W29" s="103"/>
-      <c r="X29" s="104"/>
-      <c r="Y29" s="103"/>
-      <c r="Z29" s="105"/>
-      <c r="AA29" s="108"/>
-      <c r="AB29" s="108"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="67"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="69"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="67"/>
+      <c r="Y29" s="66"/>
+      <c r="Z29" s="68"/>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="71"/>
       <c r="AC29" s="34">
         <v>99</v>
       </c>
-      <c r="AD29" s="103"/>
-      <c r="AE29" s="104"/>
-      <c r="AF29" s="103"/>
-      <c r="AG29" s="104"/>
-      <c r="AH29" s="106"/>
-      <c r="AI29" s="106"/>
-      <c r="AJ29" s="106"/>
-      <c r="AK29" s="103"/>
-      <c r="AL29" s="104"/>
-      <c r="AM29" s="103"/>
-      <c r="AN29" s="104"/>
-      <c r="AO29" s="108"/>
-      <c r="AP29" s="108"/>
+      <c r="AD29" s="66"/>
+      <c r="AE29" s="67"/>
+      <c r="AF29" s="66"/>
+      <c r="AG29" s="67"/>
+      <c r="AH29" s="69"/>
+      <c r="AI29" s="69"/>
+      <c r="AJ29" s="69"/>
+      <c r="AK29" s="66"/>
+      <c r="AL29" s="67"/>
+      <c r="AM29" s="66"/>
+      <c r="AN29" s="67"/>
+      <c r="AO29" s="71"/>
+      <c r="AP29" s="71"/>
       <c r="AQ29" s="33">
         <v>137</v>
       </c>
-      <c r="AR29" s="103"/>
-      <c r="AS29" s="104"/>
-      <c r="AT29" s="103"/>
-      <c r="AU29" s="104"/>
-      <c r="AV29" s="106"/>
-      <c r="AW29" s="106"/>
-      <c r="AX29" s="106"/>
-      <c r="AY29" s="103"/>
-      <c r="AZ29" s="104"/>
-      <c r="BA29" s="103"/>
-      <c r="BB29" s="104"/>
-      <c r="BC29" s="108"/>
-      <c r="BD29" s="108"/>
+      <c r="AR29" s="66"/>
+      <c r="AS29" s="67"/>
+      <c r="AT29" s="66"/>
+      <c r="AU29" s="67"/>
+      <c r="AV29" s="69"/>
+      <c r="AW29" s="69"/>
+      <c r="AX29" s="69"/>
+      <c r="AY29" s="66"/>
+      <c r="AZ29" s="67"/>
+      <c r="BA29" s="66"/>
+      <c r="BB29" s="67"/>
+      <c r="BC29" s="71"/>
+      <c r="BD29" s="71"/>
     </row>
     <row r="30" spans="1:56" ht="14.25" customHeight="1">
       <c r="A30" s="35">
         <v>24</v>
       </c>
-      <c r="B30" s="103"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="108"/>
-      <c r="N30" s="108"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
       <c r="O30" s="33">
         <v>62</v>
       </c>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="104"/>
-      <c r="R30" s="103"/>
-      <c r="S30" s="104"/>
-      <c r="T30" s="106"/>
-      <c r="U30" s="106"/>
-      <c r="V30" s="106"/>
-      <c r="W30" s="103"/>
-      <c r="X30" s="104"/>
-      <c r="Y30" s="103"/>
-      <c r="Z30" s="105"/>
-      <c r="AA30" s="108"/>
-      <c r="AB30" s="108"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="67"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="67"/>
+      <c r="T30" s="69"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="67"/>
+      <c r="Y30" s="66"/>
+      <c r="Z30" s="68"/>
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="71"/>
       <c r="AC30" s="34">
         <v>100</v>
       </c>
-      <c r="AD30" s="103"/>
-      <c r="AE30" s="104"/>
-      <c r="AF30" s="103"/>
-      <c r="AG30" s="104"/>
-      <c r="AH30" s="106"/>
-      <c r="AI30" s="106"/>
-      <c r="AJ30" s="106"/>
-      <c r="AK30" s="103"/>
-      <c r="AL30" s="104"/>
-      <c r="AM30" s="103"/>
-      <c r="AN30" s="104"/>
-      <c r="AO30" s="108"/>
-      <c r="AP30" s="108"/>
+      <c r="AD30" s="66"/>
+      <c r="AE30" s="67"/>
+      <c r="AF30" s="66"/>
+      <c r="AG30" s="67"/>
+      <c r="AH30" s="69"/>
+      <c r="AI30" s="69"/>
+      <c r="AJ30" s="69"/>
+      <c r="AK30" s="66"/>
+      <c r="AL30" s="67"/>
+      <c r="AM30" s="66"/>
+      <c r="AN30" s="67"/>
+      <c r="AO30" s="71"/>
+      <c r="AP30" s="71"/>
       <c r="AQ30" s="33">
         <v>138</v>
       </c>
-      <c r="AR30" s="103"/>
-      <c r="AS30" s="104"/>
-      <c r="AT30" s="103"/>
-      <c r="AU30" s="104"/>
-      <c r="AV30" s="106"/>
-      <c r="AW30" s="106"/>
-      <c r="AX30" s="106"/>
-      <c r="AY30" s="103"/>
-      <c r="AZ30" s="104"/>
-      <c r="BA30" s="103"/>
-      <c r="BB30" s="104"/>
-      <c r="BC30" s="108"/>
-      <c r="BD30" s="108"/>
+      <c r="AR30" s="66"/>
+      <c r="AS30" s="67"/>
+      <c r="AT30" s="66"/>
+      <c r="AU30" s="67"/>
+      <c r="AV30" s="69"/>
+      <c r="AW30" s="69"/>
+      <c r="AX30" s="69"/>
+      <c r="AY30" s="66"/>
+      <c r="AZ30" s="67"/>
+      <c r="BA30" s="66"/>
+      <c r="BB30" s="67"/>
+      <c r="BC30" s="71"/>
+      <c r="BD30" s="71"/>
     </row>
     <row r="31" spans="1:56" ht="15.75" customHeight="1">
       <c r="A31" s="35">
         <v>25</v>
       </c>
-      <c r="B31" s="103"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="108"/>
-      <c r="N31" s="108"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
       <c r="O31" s="33">
         <v>63</v>
       </c>
-      <c r="P31" s="103"/>
-      <c r="Q31" s="104"/>
-      <c r="R31" s="103"/>
-      <c r="S31" s="104"/>
-      <c r="T31" s="106"/>
-      <c r="U31" s="106"/>
-      <c r="V31" s="106"/>
-      <c r="W31" s="103"/>
-      <c r="X31" s="104"/>
-      <c r="Y31" s="103"/>
-      <c r="Z31" s="105"/>
-      <c r="AA31" s="108"/>
-      <c r="AB31" s="108"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="67"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="67"/>
+      <c r="T31" s="69"/>
+      <c r="U31" s="69"/>
+      <c r="V31" s="69"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="67"/>
+      <c r="Y31" s="66"/>
+      <c r="Z31" s="68"/>
+      <c r="AA31" s="71"/>
+      <c r="AB31" s="71"/>
       <c r="AC31" s="34">
         <v>101</v>
       </c>
-      <c r="AD31" s="103"/>
-      <c r="AE31" s="104"/>
-      <c r="AF31" s="103"/>
-      <c r="AG31" s="104"/>
-      <c r="AH31" s="106"/>
-      <c r="AI31" s="106"/>
-      <c r="AJ31" s="106"/>
-      <c r="AK31" s="103"/>
-      <c r="AL31" s="104"/>
-      <c r="AM31" s="103"/>
-      <c r="AN31" s="104"/>
-      <c r="AO31" s="108"/>
-      <c r="AP31" s="108"/>
+      <c r="AD31" s="66"/>
+      <c r="AE31" s="67"/>
+      <c r="AF31" s="66"/>
+      <c r="AG31" s="67"/>
+      <c r="AH31" s="69"/>
+      <c r="AI31" s="69"/>
+      <c r="AJ31" s="69"/>
+      <c r="AK31" s="66"/>
+      <c r="AL31" s="67"/>
+      <c r="AM31" s="66"/>
+      <c r="AN31" s="67"/>
+      <c r="AO31" s="71"/>
+      <c r="AP31" s="71"/>
       <c r="AQ31" s="33">
         <v>139</v>
       </c>
-      <c r="AR31" s="103"/>
-      <c r="AS31" s="104"/>
-      <c r="AT31" s="103"/>
-      <c r="AU31" s="104"/>
-      <c r="AV31" s="106"/>
-      <c r="AW31" s="106"/>
-      <c r="AX31" s="106"/>
-      <c r="AY31" s="103"/>
-      <c r="AZ31" s="104"/>
-      <c r="BA31" s="103"/>
-      <c r="BB31" s="104"/>
-      <c r="BC31" s="108"/>
-      <c r="BD31" s="108"/>
+      <c r="AR31" s="66"/>
+      <c r="AS31" s="67"/>
+      <c r="AT31" s="66"/>
+      <c r="AU31" s="67"/>
+      <c r="AV31" s="69"/>
+      <c r="AW31" s="69"/>
+      <c r="AX31" s="69"/>
+      <c r="AY31" s="66"/>
+      <c r="AZ31" s="67"/>
+      <c r="BA31" s="66"/>
+      <c r="BB31" s="67"/>
+      <c r="BC31" s="71"/>
+      <c r="BD31" s="71"/>
     </row>
     <row r="32" spans="1:56" ht="14.25" customHeight="1">
       <c r="A32" s="36">
         <v>26</v>
       </c>
-      <c r="B32" s="103"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="104"/>
-      <c r="M32" s="108"/>
-      <c r="N32" s="108"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
       <c r="O32" s="33">
         <v>64</v>
       </c>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="104"/>
-      <c r="R32" s="103"/>
-      <c r="S32" s="104"/>
-      <c r="T32" s="106"/>
-      <c r="U32" s="106"/>
-      <c r="V32" s="106"/>
-      <c r="W32" s="103"/>
-      <c r="X32" s="104"/>
-      <c r="Y32" s="103"/>
-      <c r="Z32" s="105"/>
-      <c r="AA32" s="108"/>
-      <c r="AB32" s="108"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="67"/>
+      <c r="R32" s="66"/>
+      <c r="S32" s="67"/>
+      <c r="T32" s="69"/>
+      <c r="U32" s="69"/>
+      <c r="V32" s="69"/>
+      <c r="W32" s="66"/>
+      <c r="X32" s="67"/>
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="68"/>
+      <c r="AA32" s="71"/>
+      <c r="AB32" s="71"/>
       <c r="AC32" s="34">
         <v>102</v>
       </c>
-      <c r="AD32" s="103"/>
-      <c r="AE32" s="104"/>
-      <c r="AF32" s="103"/>
-      <c r="AG32" s="104"/>
-      <c r="AH32" s="106"/>
-      <c r="AI32" s="106"/>
-      <c r="AJ32" s="106"/>
-      <c r="AK32" s="103"/>
-      <c r="AL32" s="104"/>
-      <c r="AM32" s="103"/>
-      <c r="AN32" s="104"/>
-      <c r="AO32" s="108"/>
-      <c r="AP32" s="108"/>
+      <c r="AD32" s="66"/>
+      <c r="AE32" s="67"/>
+      <c r="AF32" s="66"/>
+      <c r="AG32" s="67"/>
+      <c r="AH32" s="69"/>
+      <c r="AI32" s="69"/>
+      <c r="AJ32" s="69"/>
+      <c r="AK32" s="66"/>
+      <c r="AL32" s="67"/>
+      <c r="AM32" s="66"/>
+      <c r="AN32" s="67"/>
+      <c r="AO32" s="71"/>
+      <c r="AP32" s="71"/>
       <c r="AQ32" s="33">
         <v>140</v>
       </c>
-      <c r="AR32" s="103"/>
-      <c r="AS32" s="104"/>
-      <c r="AT32" s="103"/>
-      <c r="AU32" s="104"/>
-      <c r="AV32" s="106"/>
-      <c r="AW32" s="106"/>
-      <c r="AX32" s="106"/>
-      <c r="AY32" s="103"/>
-      <c r="AZ32" s="104"/>
-      <c r="BA32" s="103"/>
-      <c r="BB32" s="104"/>
-      <c r="BC32" s="108"/>
-      <c r="BD32" s="108"/>
+      <c r="AR32" s="66"/>
+      <c r="AS32" s="67"/>
+      <c r="AT32" s="66"/>
+      <c r="AU32" s="67"/>
+      <c r="AV32" s="69"/>
+      <c r="AW32" s="69"/>
+      <c r="AX32" s="69"/>
+      <c r="AY32" s="66"/>
+      <c r="AZ32" s="67"/>
+      <c r="BA32" s="66"/>
+      <c r="BB32" s="67"/>
+      <c r="BC32" s="71"/>
+      <c r="BD32" s="71"/>
     </row>
     <row r="33" spans="1:66" ht="14.25" customHeight="1">
       <c r="A33" s="36">
         <v>27</v>
       </c>
-      <c r="B33" s="103"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="104"/>
-      <c r="M33" s="108"/>
-      <c r="N33" s="108"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
       <c r="O33" s="33">
         <v>65</v>
       </c>
-      <c r="P33" s="103"/>
-      <c r="Q33" s="104"/>
-      <c r="R33" s="103"/>
-      <c r="S33" s="104"/>
-      <c r="T33" s="106"/>
-      <c r="U33" s="106"/>
-      <c r="V33" s="106"/>
-      <c r="W33" s="103"/>
-      <c r="X33" s="104"/>
-      <c r="Y33" s="103"/>
-      <c r="Z33" s="105"/>
-      <c r="AA33" s="108"/>
-      <c r="AB33" s="108"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="67"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="67"/>
+      <c r="T33" s="69"/>
+      <c r="U33" s="69"/>
+      <c r="V33" s="69"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="67"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="68"/>
+      <c r="AA33" s="71"/>
+      <c r="AB33" s="71"/>
       <c r="AC33" s="34">
         <v>103</v>
       </c>
-      <c r="AD33" s="103"/>
-      <c r="AE33" s="104"/>
-      <c r="AF33" s="103"/>
-      <c r="AG33" s="104"/>
-      <c r="AH33" s="106"/>
-      <c r="AI33" s="106"/>
-      <c r="AJ33" s="106"/>
-      <c r="AK33" s="103"/>
-      <c r="AL33" s="104"/>
-      <c r="AM33" s="103"/>
-      <c r="AN33" s="104"/>
-      <c r="AO33" s="108"/>
-      <c r="AP33" s="108"/>
+      <c r="AD33" s="66"/>
+      <c r="AE33" s="67"/>
+      <c r="AF33" s="66"/>
+      <c r="AG33" s="67"/>
+      <c r="AH33" s="69"/>
+      <c r="AI33" s="69"/>
+      <c r="AJ33" s="69"/>
+      <c r="AK33" s="66"/>
+      <c r="AL33" s="67"/>
+      <c r="AM33" s="66"/>
+      <c r="AN33" s="67"/>
+      <c r="AO33" s="71"/>
+      <c r="AP33" s="71"/>
       <c r="AQ33" s="33">
         <v>141</v>
       </c>
-      <c r="AR33" s="103"/>
-      <c r="AS33" s="104"/>
-      <c r="AT33" s="103"/>
-      <c r="AU33" s="104"/>
-      <c r="AV33" s="106"/>
-      <c r="AW33" s="106"/>
-      <c r="AX33" s="106"/>
-      <c r="AY33" s="103"/>
-      <c r="AZ33" s="104"/>
-      <c r="BA33" s="103"/>
-      <c r="BB33" s="104"/>
-      <c r="BC33" s="108"/>
-      <c r="BD33" s="108"/>
+      <c r="AR33" s="66"/>
+      <c r="AS33" s="67"/>
+      <c r="AT33" s="66"/>
+      <c r="AU33" s="67"/>
+      <c r="AV33" s="69"/>
+      <c r="AW33" s="69"/>
+      <c r="AX33" s="69"/>
+      <c r="AY33" s="66"/>
+      <c r="AZ33" s="67"/>
+      <c r="BA33" s="66"/>
+      <c r="BB33" s="67"/>
+      <c r="BC33" s="71"/>
+      <c r="BD33" s="71"/>
     </row>
     <row r="34" spans="1:66" ht="15" customHeight="1">
       <c r="A34" s="36">
         <v>28</v>
       </c>
-      <c r="B34" s="103"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="103"/>
-      <c r="L34" s="104"/>
-      <c r="M34" s="108"/>
-      <c r="N34" s="108"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
       <c r="O34" s="33">
         <v>66</v>
       </c>
-      <c r="P34" s="103"/>
-      <c r="Q34" s="104"/>
-      <c r="R34" s="103"/>
-      <c r="S34" s="104"/>
-      <c r="T34" s="106"/>
-      <c r="U34" s="106"/>
-      <c r="V34" s="106"/>
-      <c r="W34" s="103"/>
-      <c r="X34" s="104"/>
-      <c r="Y34" s="103"/>
-      <c r="Z34" s="105"/>
-      <c r="AA34" s="108"/>
-      <c r="AB34" s="108"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="67"/>
+      <c r="R34" s="66"/>
+      <c r="S34" s="67"/>
+      <c r="T34" s="69"/>
+      <c r="U34" s="69"/>
+      <c r="V34" s="69"/>
+      <c r="W34" s="66"/>
+      <c r="X34" s="67"/>
+      <c r="Y34" s="66"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="71"/>
+      <c r="AB34" s="71"/>
       <c r="AC34" s="34">
         <v>104</v>
       </c>
-      <c r="AD34" s="103"/>
-      <c r="AE34" s="104"/>
-      <c r="AF34" s="103"/>
-      <c r="AG34" s="104"/>
-      <c r="AH34" s="106"/>
-      <c r="AI34" s="106"/>
-      <c r="AJ34" s="106"/>
-      <c r="AK34" s="103"/>
-      <c r="AL34" s="104"/>
-      <c r="AM34" s="103"/>
-      <c r="AN34" s="104"/>
-      <c r="AO34" s="108"/>
-      <c r="AP34" s="108"/>
+      <c r="AD34" s="66"/>
+      <c r="AE34" s="67"/>
+      <c r="AF34" s="66"/>
+      <c r="AG34" s="67"/>
+      <c r="AH34" s="69"/>
+      <c r="AI34" s="69"/>
+      <c r="AJ34" s="69"/>
+      <c r="AK34" s="66"/>
+      <c r="AL34" s="67"/>
+      <c r="AM34" s="66"/>
+      <c r="AN34" s="67"/>
+      <c r="AO34" s="71"/>
+      <c r="AP34" s="71"/>
       <c r="AQ34" s="33">
         <v>142</v>
       </c>
-      <c r="AR34" s="103"/>
-      <c r="AS34" s="104"/>
-      <c r="AT34" s="103"/>
-      <c r="AU34" s="104"/>
-      <c r="AV34" s="106"/>
-      <c r="AW34" s="106"/>
-      <c r="AX34" s="106"/>
-      <c r="AY34" s="103"/>
-      <c r="AZ34" s="104"/>
-      <c r="BA34" s="103"/>
-      <c r="BB34" s="104"/>
-      <c r="BC34" s="108"/>
-      <c r="BD34" s="108"/>
+      <c r="AR34" s="66"/>
+      <c r="AS34" s="67"/>
+      <c r="AT34" s="66"/>
+      <c r="AU34" s="67"/>
+      <c r="AV34" s="69"/>
+      <c r="AW34" s="69"/>
+      <c r="AX34" s="69"/>
+      <c r="AY34" s="66"/>
+      <c r="AZ34" s="67"/>
+      <c r="BA34" s="66"/>
+      <c r="BB34" s="67"/>
+      <c r="BC34" s="71"/>
+      <c r="BD34" s="71"/>
     </row>
     <row r="35" spans="1:66" ht="14.25" customHeight="1">
       <c r="A35" s="36">
         <v>29</v>
       </c>
-      <c r="B35" s="103"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="103"/>
-      <c r="L35" s="104"/>
-      <c r="M35" s="108"/>
-      <c r="N35" s="108"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
       <c r="O35" s="33">
         <v>67</v>
       </c>
-      <c r="P35" s="103"/>
-      <c r="Q35" s="104"/>
-      <c r="R35" s="103"/>
-      <c r="S35" s="104"/>
-      <c r="T35" s="106"/>
-      <c r="U35" s="106"/>
-      <c r="V35" s="106"/>
-      <c r="W35" s="103"/>
-      <c r="X35" s="104"/>
-      <c r="Y35" s="103"/>
-      <c r="Z35" s="105"/>
-      <c r="AA35" s="108"/>
-      <c r="AB35" s="108"/>
+      <c r="P35" s="66"/>
+      <c r="Q35" s="67"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="67"/>
+      <c r="T35" s="69"/>
+      <c r="U35" s="69"/>
+      <c r="V35" s="69"/>
+      <c r="W35" s="66"/>
+      <c r="X35" s="67"/>
+      <c r="Y35" s="66"/>
+      <c r="Z35" s="68"/>
+      <c r="AA35" s="71"/>
+      <c r="AB35" s="71"/>
       <c r="AC35" s="34">
         <v>105</v>
       </c>
-      <c r="AD35" s="103"/>
-      <c r="AE35" s="104"/>
-      <c r="AF35" s="103"/>
-      <c r="AG35" s="104"/>
-      <c r="AH35" s="106"/>
-      <c r="AI35" s="106"/>
-      <c r="AJ35" s="106"/>
-      <c r="AK35" s="103"/>
-      <c r="AL35" s="104"/>
-      <c r="AM35" s="103"/>
-      <c r="AN35" s="104"/>
-      <c r="AO35" s="108"/>
-      <c r="AP35" s="108"/>
+      <c r="AD35" s="66"/>
+      <c r="AE35" s="67"/>
+      <c r="AF35" s="66"/>
+      <c r="AG35" s="67"/>
+      <c r="AH35" s="69"/>
+      <c r="AI35" s="69"/>
+      <c r="AJ35" s="69"/>
+      <c r="AK35" s="66"/>
+      <c r="AL35" s="67"/>
+      <c r="AM35" s="66"/>
+      <c r="AN35" s="67"/>
+      <c r="AO35" s="71"/>
+      <c r="AP35" s="71"/>
       <c r="AQ35" s="33">
         <v>143</v>
       </c>
-      <c r="AR35" s="103"/>
-      <c r="AS35" s="104"/>
-      <c r="AT35" s="103"/>
-      <c r="AU35" s="104"/>
-      <c r="AV35" s="106"/>
-      <c r="AW35" s="106"/>
-      <c r="AX35" s="106"/>
-      <c r="AY35" s="103"/>
-      <c r="AZ35" s="104"/>
-      <c r="BA35" s="103"/>
-      <c r="BB35" s="104"/>
-      <c r="BC35" s="108"/>
-      <c r="BD35" s="108"/>
+      <c r="AR35" s="66"/>
+      <c r="AS35" s="67"/>
+      <c r="AT35" s="66"/>
+      <c r="AU35" s="67"/>
+      <c r="AV35" s="69"/>
+      <c r="AW35" s="69"/>
+      <c r="AX35" s="69"/>
+      <c r="AY35" s="66"/>
+      <c r="AZ35" s="67"/>
+      <c r="BA35" s="66"/>
+      <c r="BB35" s="67"/>
+      <c r="BC35" s="71"/>
+      <c r="BD35" s="71"/>
     </row>
     <row r="36" spans="1:66" ht="14.25" customHeight="1">
       <c r="A36" s="35">
         <v>30</v>
       </c>
-      <c r="B36" s="103"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="104"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="104"/>
-      <c r="M36" s="108"/>
-      <c r="N36" s="108"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
       <c r="O36" s="33">
         <v>68</v>
       </c>
-      <c r="P36" s="103"/>
-      <c r="Q36" s="104"/>
-      <c r="R36" s="103"/>
-      <c r="S36" s="104"/>
-      <c r="T36" s="106"/>
-      <c r="U36" s="106"/>
-      <c r="V36" s="106"/>
-      <c r="W36" s="103"/>
-      <c r="X36" s="104"/>
-      <c r="Y36" s="103"/>
-      <c r="Z36" s="105"/>
-      <c r="AA36" s="108"/>
-      <c r="AB36" s="108"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="67"/>
+      <c r="R36" s="66"/>
+      <c r="S36" s="67"/>
+      <c r="T36" s="69"/>
+      <c r="U36" s="69"/>
+      <c r="V36" s="69"/>
+      <c r="W36" s="66"/>
+      <c r="X36" s="67"/>
+      <c r="Y36" s="66"/>
+      <c r="Z36" s="68"/>
+      <c r="AA36" s="71"/>
+      <c r="AB36" s="71"/>
       <c r="AC36" s="34">
         <v>106</v>
       </c>
-      <c r="AD36" s="103"/>
-      <c r="AE36" s="104"/>
-      <c r="AF36" s="103"/>
-      <c r="AG36" s="104"/>
-      <c r="AH36" s="106"/>
-      <c r="AI36" s="106"/>
-      <c r="AJ36" s="106"/>
-      <c r="AK36" s="103"/>
-      <c r="AL36" s="104"/>
-      <c r="AM36" s="103"/>
-      <c r="AN36" s="104"/>
-      <c r="AO36" s="108"/>
-      <c r="AP36" s="108"/>
+      <c r="AD36" s="66"/>
+      <c r="AE36" s="67"/>
+      <c r="AF36" s="66"/>
+      <c r="AG36" s="67"/>
+      <c r="AH36" s="69"/>
+      <c r="AI36" s="69"/>
+      <c r="AJ36" s="69"/>
+      <c r="AK36" s="66"/>
+      <c r="AL36" s="67"/>
+      <c r="AM36" s="66"/>
+      <c r="AN36" s="67"/>
+      <c r="AO36" s="71"/>
+      <c r="AP36" s="71"/>
       <c r="AQ36" s="33">
         <v>144</v>
       </c>
-      <c r="AR36" s="103"/>
-      <c r="AS36" s="104"/>
-      <c r="AT36" s="103"/>
-      <c r="AU36" s="104"/>
-      <c r="AV36" s="106"/>
-      <c r="AW36" s="106"/>
-      <c r="AX36" s="106"/>
-      <c r="AY36" s="103"/>
-      <c r="AZ36" s="104"/>
-      <c r="BA36" s="103"/>
-      <c r="BB36" s="104"/>
-      <c r="BC36" s="108"/>
-      <c r="BD36" s="108"/>
+      <c r="AR36" s="66"/>
+      <c r="AS36" s="67"/>
+      <c r="AT36" s="66"/>
+      <c r="AU36" s="67"/>
+      <c r="AV36" s="69"/>
+      <c r="AW36" s="69"/>
+      <c r="AX36" s="69"/>
+      <c r="AY36" s="66"/>
+      <c r="AZ36" s="67"/>
+      <c r="BA36" s="66"/>
+      <c r="BB36" s="67"/>
+      <c r="BC36" s="71"/>
+      <c r="BD36" s="71"/>
     </row>
     <row r="37" spans="1:66" ht="15.75" customHeight="1">
       <c r="A37" s="35">
         <v>31</v>
       </c>
-      <c r="B37" s="103"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="104"/>
-      <c r="K37" s="103"/>
-      <c r="L37" s="104"/>
-      <c r="M37" s="108"/>
-      <c r="N37" s="108"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
       <c r="O37" s="33">
         <v>69</v>
       </c>
-      <c r="P37" s="103"/>
-      <c r="Q37" s="104"/>
-      <c r="R37" s="103"/>
-      <c r="S37" s="104"/>
-      <c r="T37" s="106"/>
-      <c r="U37" s="106"/>
-      <c r="V37" s="106"/>
-      <c r="W37" s="103"/>
-      <c r="X37" s="104"/>
-      <c r="Y37" s="103"/>
-      <c r="Z37" s="105"/>
-      <c r="AA37" s="108"/>
-      <c r="AB37" s="108"/>
+      <c r="P37" s="66"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="66"/>
+      <c r="S37" s="67"/>
+      <c r="T37" s="69"/>
+      <c r="U37" s="69"/>
+      <c r="V37" s="69"/>
+      <c r="W37" s="66"/>
+      <c r="X37" s="67"/>
+      <c r="Y37" s="66"/>
+      <c r="Z37" s="68"/>
+      <c r="AA37" s="71"/>
+      <c r="AB37" s="71"/>
       <c r="AC37" s="34">
         <v>107</v>
       </c>
-      <c r="AD37" s="103"/>
-      <c r="AE37" s="104"/>
-      <c r="AF37" s="103"/>
-      <c r="AG37" s="104"/>
-      <c r="AH37" s="106"/>
-      <c r="AI37" s="106"/>
-      <c r="AJ37" s="106"/>
-      <c r="AK37" s="103"/>
-      <c r="AL37" s="104"/>
-      <c r="AM37" s="103"/>
-      <c r="AN37" s="104"/>
-      <c r="AO37" s="108"/>
-      <c r="AP37" s="108"/>
+      <c r="AD37" s="66"/>
+      <c r="AE37" s="67"/>
+      <c r="AF37" s="66"/>
+      <c r="AG37" s="67"/>
+      <c r="AH37" s="69"/>
+      <c r="AI37" s="69"/>
+      <c r="AJ37" s="69"/>
+      <c r="AK37" s="66"/>
+      <c r="AL37" s="67"/>
+      <c r="AM37" s="66"/>
+      <c r="AN37" s="67"/>
+      <c r="AO37" s="71"/>
+      <c r="AP37" s="71"/>
       <c r="AQ37" s="33">
         <v>145</v>
       </c>
-      <c r="AR37" s="103"/>
-      <c r="AS37" s="104"/>
-      <c r="AT37" s="103"/>
-      <c r="AU37" s="104"/>
-      <c r="AV37" s="106"/>
-      <c r="AW37" s="106"/>
-      <c r="AX37" s="106"/>
-      <c r="AY37" s="103"/>
-      <c r="AZ37" s="104"/>
-      <c r="BA37" s="103"/>
-      <c r="BB37" s="104"/>
-      <c r="BC37" s="108"/>
-      <c r="BD37" s="108"/>
+      <c r="AR37" s="66"/>
+      <c r="AS37" s="67"/>
+      <c r="AT37" s="66"/>
+      <c r="AU37" s="67"/>
+      <c r="AV37" s="69"/>
+      <c r="AW37" s="69"/>
+      <c r="AX37" s="69"/>
+      <c r="AY37" s="66"/>
+      <c r="AZ37" s="67"/>
+      <c r="BA37" s="66"/>
+      <c r="BB37" s="67"/>
+      <c r="BC37" s="71"/>
+      <c r="BD37" s="71"/>
     </row>
     <row r="38" spans="1:66" ht="15.75" customHeight="1">
       <c r="A38" s="35">
         <v>32</v>
       </c>
-      <c r="B38" s="103"/>
-      <c r="C38" s="104"/>
-      <c r="D38" s="103"/>
-      <c r="E38" s="104"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="103"/>
-      <c r="J38" s="104"/>
-      <c r="K38" s="103"/>
-      <c r="L38" s="104"/>
-      <c r="M38" s="108"/>
-      <c r="N38" s="108"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
       <c r="O38" s="33">
         <v>70</v>
       </c>
-      <c r="P38" s="103"/>
-      <c r="Q38" s="104"/>
-      <c r="R38" s="103"/>
-      <c r="S38" s="104"/>
-      <c r="T38" s="106"/>
-      <c r="U38" s="106"/>
-      <c r="V38" s="106"/>
-      <c r="W38" s="103"/>
-      <c r="X38" s="104"/>
-      <c r="Y38" s="103"/>
-      <c r="Z38" s="105"/>
-      <c r="AA38" s="108"/>
-      <c r="AB38" s="108"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="67"/>
+      <c r="T38" s="69"/>
+      <c r="U38" s="69"/>
+      <c r="V38" s="69"/>
+      <c r="W38" s="66"/>
+      <c r="X38" s="67"/>
+      <c r="Y38" s="66"/>
+      <c r="Z38" s="68"/>
+      <c r="AA38" s="71"/>
+      <c r="AB38" s="71"/>
       <c r="AC38" s="34">
         <v>108</v>
       </c>
-      <c r="AD38" s="103"/>
-      <c r="AE38" s="104"/>
-      <c r="AF38" s="103"/>
-      <c r="AG38" s="104"/>
-      <c r="AH38" s="106"/>
-      <c r="AI38" s="106"/>
-      <c r="AJ38" s="106"/>
-      <c r="AK38" s="103"/>
-      <c r="AL38" s="104"/>
-      <c r="AM38" s="103"/>
-      <c r="AN38" s="104"/>
-      <c r="AO38" s="108"/>
-      <c r="AP38" s="108"/>
+      <c r="AD38" s="66"/>
+      <c r="AE38" s="67"/>
+      <c r="AF38" s="66"/>
+      <c r="AG38" s="67"/>
+      <c r="AH38" s="69"/>
+      <c r="AI38" s="69"/>
+      <c r="AJ38" s="69"/>
+      <c r="AK38" s="66"/>
+      <c r="AL38" s="67"/>
+      <c r="AM38" s="66"/>
+      <c r="AN38" s="67"/>
+      <c r="AO38" s="71"/>
+      <c r="AP38" s="71"/>
       <c r="AQ38" s="33">
         <v>146</v>
       </c>
-      <c r="AR38" s="103"/>
-      <c r="AS38" s="104"/>
-      <c r="AT38" s="103"/>
-      <c r="AU38" s="104"/>
-      <c r="AV38" s="106"/>
-      <c r="AW38" s="106"/>
-      <c r="AX38" s="106"/>
-      <c r="AY38" s="103"/>
-      <c r="AZ38" s="104"/>
-      <c r="BA38" s="103"/>
-      <c r="BB38" s="104"/>
-      <c r="BC38" s="108"/>
-      <c r="BD38" s="108"/>
+      <c r="AR38" s="66"/>
+      <c r="AS38" s="67"/>
+      <c r="AT38" s="66"/>
+      <c r="AU38" s="67"/>
+      <c r="AV38" s="69"/>
+      <c r="AW38" s="69"/>
+      <c r="AX38" s="69"/>
+      <c r="AY38" s="66"/>
+      <c r="AZ38" s="67"/>
+      <c r="BA38" s="66"/>
+      <c r="BB38" s="67"/>
+      <c r="BC38" s="71"/>
+      <c r="BD38" s="71"/>
     </row>
     <row r="39" spans="1:66" ht="13.5" customHeight="1">
       <c r="A39" s="35">
         <v>33</v>
       </c>
-      <c r="B39" s="103"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="106"/>
-      <c r="G39" s="106"/>
-      <c r="H39" s="106"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="104"/>
-      <c r="K39" s="103"/>
-      <c r="L39" s="104"/>
-      <c r="M39" s="108"/>
-      <c r="N39" s="108"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
       <c r="O39" s="33">
         <v>71</v>
       </c>
-      <c r="P39" s="103"/>
-      <c r="Q39" s="104"/>
-      <c r="R39" s="103"/>
-      <c r="S39" s="104"/>
-      <c r="T39" s="106"/>
-      <c r="U39" s="106"/>
-      <c r="V39" s="106"/>
-      <c r="W39" s="103"/>
-      <c r="X39" s="104"/>
-      <c r="Y39" s="103"/>
-      <c r="Z39" s="105"/>
-      <c r="AA39" s="108"/>
-      <c r="AB39" s="108"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="67"/>
+      <c r="R39" s="66"/>
+      <c r="S39" s="67"/>
+      <c r="T39" s="69"/>
+      <c r="U39" s="69"/>
+      <c r="V39" s="69"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="67"/>
+      <c r="Y39" s="66"/>
+      <c r="Z39" s="68"/>
+      <c r="AA39" s="71"/>
+      <c r="AB39" s="71"/>
       <c r="AC39" s="34">
         <v>109</v>
       </c>
-      <c r="AD39" s="103"/>
-      <c r="AE39" s="104"/>
-      <c r="AF39" s="103"/>
-      <c r="AG39" s="104"/>
-      <c r="AH39" s="106"/>
-      <c r="AI39" s="106"/>
-      <c r="AJ39" s="106"/>
-      <c r="AK39" s="103"/>
-      <c r="AL39" s="104"/>
-      <c r="AM39" s="103"/>
-      <c r="AN39" s="104"/>
-      <c r="AO39" s="108"/>
-      <c r="AP39" s="108"/>
+      <c r="AD39" s="66"/>
+      <c r="AE39" s="67"/>
+      <c r="AF39" s="66"/>
+      <c r="AG39" s="67"/>
+      <c r="AH39" s="69"/>
+      <c r="AI39" s="69"/>
+      <c r="AJ39" s="69"/>
+      <c r="AK39" s="66"/>
+      <c r="AL39" s="67"/>
+      <c r="AM39" s="66"/>
+      <c r="AN39" s="67"/>
+      <c r="AO39" s="71"/>
+      <c r="AP39" s="71"/>
       <c r="AQ39" s="33">
         <v>147</v>
       </c>
-      <c r="AR39" s="103"/>
-      <c r="AS39" s="104"/>
-      <c r="AT39" s="103"/>
-      <c r="AU39" s="104"/>
-      <c r="AV39" s="106"/>
-      <c r="AW39" s="106"/>
-      <c r="AX39" s="106"/>
-      <c r="AY39" s="103"/>
-      <c r="AZ39" s="104"/>
-      <c r="BA39" s="103"/>
-      <c r="BB39" s="104"/>
-      <c r="BC39" s="108"/>
-      <c r="BD39" s="108"/>
+      <c r="AR39" s="66"/>
+      <c r="AS39" s="67"/>
+      <c r="AT39" s="66"/>
+      <c r="AU39" s="67"/>
+      <c r="AV39" s="69"/>
+      <c r="AW39" s="69"/>
+      <c r="AX39" s="69"/>
+      <c r="AY39" s="66"/>
+      <c r="AZ39" s="67"/>
+      <c r="BA39" s="66"/>
+      <c r="BB39" s="67"/>
+      <c r="BC39" s="71"/>
+      <c r="BD39" s="71"/>
     </row>
     <row r="40" spans="1:66" ht="15.75" customHeight="1">
       <c r="A40" s="35">
         <v>34</v>
       </c>
-      <c r="B40" s="103"/>
-      <c r="C40" s="104"/>
-      <c r="D40" s="103"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="106"/>
-      <c r="H40" s="106"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="104"/>
-      <c r="K40" s="103"/>
-      <c r="L40" s="104"/>
-      <c r="M40" s="108"/>
-      <c r="N40" s="108"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="71"/>
       <c r="O40" s="33">
         <v>72</v>
       </c>
-      <c r="P40" s="103"/>
-      <c r="Q40" s="104"/>
-      <c r="R40" s="103"/>
-      <c r="S40" s="104"/>
-      <c r="T40" s="106"/>
-      <c r="U40" s="106"/>
-      <c r="V40" s="106"/>
-      <c r="W40" s="103"/>
-      <c r="X40" s="104"/>
-      <c r="Y40" s="103"/>
-      <c r="Z40" s="105"/>
-      <c r="AA40" s="108"/>
-      <c r="AB40" s="108"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="67"/>
+      <c r="R40" s="66"/>
+      <c r="S40" s="67"/>
+      <c r="T40" s="69"/>
+      <c r="U40" s="69"/>
+      <c r="V40" s="69"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="67"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="68"/>
+      <c r="AA40" s="71"/>
+      <c r="AB40" s="71"/>
       <c r="AC40" s="34">
         <v>110</v>
       </c>
-      <c r="AD40" s="103"/>
-      <c r="AE40" s="104"/>
-      <c r="AF40" s="103"/>
-      <c r="AG40" s="104"/>
-      <c r="AH40" s="106"/>
-      <c r="AI40" s="106"/>
-      <c r="AJ40" s="106"/>
-      <c r="AK40" s="103"/>
-      <c r="AL40" s="104"/>
-      <c r="AM40" s="103"/>
-      <c r="AN40" s="104"/>
-      <c r="AO40" s="108"/>
-      <c r="AP40" s="108"/>
+      <c r="AD40" s="66"/>
+      <c r="AE40" s="67"/>
+      <c r="AF40" s="66"/>
+      <c r="AG40" s="67"/>
+      <c r="AH40" s="69"/>
+      <c r="AI40" s="69"/>
+      <c r="AJ40" s="69"/>
+      <c r="AK40" s="66"/>
+      <c r="AL40" s="67"/>
+      <c r="AM40" s="66"/>
+      <c r="AN40" s="67"/>
+      <c r="AO40" s="71"/>
+      <c r="AP40" s="71"/>
       <c r="AQ40" s="33">
         <v>148</v>
       </c>
-      <c r="AR40" s="103"/>
-      <c r="AS40" s="104"/>
-      <c r="AT40" s="103"/>
-      <c r="AU40" s="104"/>
-      <c r="AV40" s="106"/>
-      <c r="AW40" s="106"/>
-      <c r="AX40" s="106"/>
-      <c r="AY40" s="103"/>
-      <c r="AZ40" s="104"/>
-      <c r="BA40" s="103"/>
-      <c r="BB40" s="104"/>
-      <c r="BC40" s="108"/>
-      <c r="BD40" s="108"/>
+      <c r="AR40" s="66"/>
+      <c r="AS40" s="67"/>
+      <c r="AT40" s="66"/>
+      <c r="AU40" s="67"/>
+      <c r="AV40" s="69"/>
+      <c r="AW40" s="69"/>
+      <c r="AX40" s="69"/>
+      <c r="AY40" s="66"/>
+      <c r="AZ40" s="67"/>
+      <c r="BA40" s="66"/>
+      <c r="BB40" s="67"/>
+      <c r="BC40" s="71"/>
+      <c r="BD40" s="71"/>
     </row>
     <row r="41" spans="1:66" ht="14.25" customHeight="1" thickBot="1">
       <c r="A41" s="37">
         <v>35</v>
       </c>
-      <c r="B41" s="103"/>
-      <c r="C41" s="104"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="103"/>
-      <c r="J41" s="104"/>
-      <c r="K41" s="103"/>
-      <c r="L41" s="104"/>
-      <c r="M41" s="108"/>
-      <c r="N41" s="108"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="71"/>
+      <c r="N41" s="71"/>
       <c r="O41" s="33">
         <v>73</v>
       </c>
-      <c r="P41" s="103"/>
-      <c r="Q41" s="104"/>
-      <c r="R41" s="103"/>
-      <c r="S41" s="104"/>
-      <c r="T41" s="106"/>
-      <c r="U41" s="106"/>
-      <c r="V41" s="106"/>
-      <c r="W41" s="103"/>
-      <c r="X41" s="104"/>
-      <c r="Y41" s="103"/>
-      <c r="Z41" s="105"/>
-      <c r="AA41" s="108"/>
-      <c r="AB41" s="108"/>
+      <c r="P41" s="66"/>
+      <c r="Q41" s="67"/>
+      <c r="R41" s="66"/>
+      <c r="S41" s="67"/>
+      <c r="T41" s="69"/>
+      <c r="U41" s="69"/>
+      <c r="V41" s="69"/>
+      <c r="W41" s="66"/>
+      <c r="X41" s="67"/>
+      <c r="Y41" s="66"/>
+      <c r="Z41" s="68"/>
+      <c r="AA41" s="71"/>
+      <c r="AB41" s="71"/>
       <c r="AC41" s="34">
         <v>111</v>
       </c>
-      <c r="AD41" s="103"/>
-      <c r="AE41" s="104"/>
-      <c r="AF41" s="103"/>
-      <c r="AG41" s="104"/>
-      <c r="AH41" s="106"/>
-      <c r="AI41" s="106"/>
-      <c r="AJ41" s="106"/>
-      <c r="AK41" s="103"/>
-      <c r="AL41" s="104"/>
-      <c r="AM41" s="103"/>
-      <c r="AN41" s="104"/>
-      <c r="AO41" s="108"/>
-      <c r="AP41" s="108"/>
+      <c r="AD41" s="66"/>
+      <c r="AE41" s="67"/>
+      <c r="AF41" s="66"/>
+      <c r="AG41" s="67"/>
+      <c r="AH41" s="69"/>
+      <c r="AI41" s="69"/>
+      <c r="AJ41" s="69"/>
+      <c r="AK41" s="66"/>
+      <c r="AL41" s="67"/>
+      <c r="AM41" s="66"/>
+      <c r="AN41" s="67"/>
+      <c r="AO41" s="71"/>
+      <c r="AP41" s="71"/>
       <c r="AQ41" s="33">
         <v>149</v>
       </c>
-      <c r="AR41" s="103"/>
-      <c r="AS41" s="104"/>
-      <c r="AT41" s="103"/>
-      <c r="AU41" s="104"/>
-      <c r="AV41" s="106"/>
-      <c r="AW41" s="106"/>
-      <c r="AX41" s="106"/>
-      <c r="AY41" s="103"/>
-      <c r="AZ41" s="104"/>
-      <c r="BA41" s="103"/>
-      <c r="BB41" s="104"/>
-      <c r="BC41" s="108"/>
-      <c r="BD41" s="108"/>
+      <c r="AR41" s="66"/>
+      <c r="AS41" s="67"/>
+      <c r="AT41" s="66"/>
+      <c r="AU41" s="67"/>
+      <c r="AV41" s="69"/>
+      <c r="AW41" s="69"/>
+      <c r="AX41" s="69"/>
+      <c r="AY41" s="66"/>
+      <c r="AZ41" s="67"/>
+      <c r="BA41" s="66"/>
+      <c r="BB41" s="67"/>
+      <c r="BC41" s="71"/>
+      <c r="BD41" s="71"/>
     </row>
     <row r="42" spans="1:66" ht="15" customHeight="1">
       <c r="A42" s="35">
         <v>36</v>
       </c>
-      <c r="B42" s="103"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="106"/>
-      <c r="G42" s="106"/>
-      <c r="H42" s="106"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="104"/>
-      <c r="K42" s="103"/>
-      <c r="L42" s="104"/>
-      <c r="M42" s="108"/>
-      <c r="N42" s="108"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="71"/>
       <c r="O42" s="33">
         <v>74</v>
       </c>
-      <c r="P42" s="103"/>
-      <c r="Q42" s="104"/>
-      <c r="R42" s="103"/>
-      <c r="S42" s="104"/>
-      <c r="T42" s="106"/>
-      <c r="U42" s="106"/>
-      <c r="V42" s="106"/>
-      <c r="W42" s="103"/>
-      <c r="X42" s="104"/>
-      <c r="Y42" s="103"/>
-      <c r="Z42" s="105"/>
-      <c r="AA42" s="108"/>
-      <c r="AB42" s="108"/>
+      <c r="P42" s="66"/>
+      <c r="Q42" s="67"/>
+      <c r="R42" s="66"/>
+      <c r="S42" s="67"/>
+      <c r="T42" s="69"/>
+      <c r="U42" s="69"/>
+      <c r="V42" s="69"/>
+      <c r="W42" s="66"/>
+      <c r="X42" s="67"/>
+      <c r="Y42" s="66"/>
+      <c r="Z42" s="68"/>
+      <c r="AA42" s="71"/>
+      <c r="AB42" s="71"/>
       <c r="AC42" s="34">
         <v>112</v>
       </c>
-      <c r="AD42" s="103"/>
-      <c r="AE42" s="104"/>
-      <c r="AF42" s="103"/>
-      <c r="AG42" s="104"/>
-      <c r="AH42" s="106"/>
-      <c r="AI42" s="106"/>
-      <c r="AJ42" s="106"/>
-      <c r="AK42" s="103"/>
-      <c r="AL42" s="104"/>
-      <c r="AM42" s="103"/>
-      <c r="AN42" s="104"/>
-      <c r="AO42" s="108"/>
-      <c r="AP42" s="108"/>
+      <c r="AD42" s="66"/>
+      <c r="AE42" s="67"/>
+      <c r="AF42" s="66"/>
+      <c r="AG42" s="67"/>
+      <c r="AH42" s="69"/>
+      <c r="AI42" s="69"/>
+      <c r="AJ42" s="69"/>
+      <c r="AK42" s="66"/>
+      <c r="AL42" s="67"/>
+      <c r="AM42" s="66"/>
+      <c r="AN42" s="67"/>
+      <c r="AO42" s="71"/>
+      <c r="AP42" s="71"/>
       <c r="AQ42" s="33">
         <v>150</v>
       </c>
-      <c r="AR42" s="103"/>
-      <c r="AS42" s="104"/>
-      <c r="AT42" s="103"/>
-      <c r="AU42" s="104"/>
-      <c r="AV42" s="106"/>
-      <c r="AW42" s="106"/>
-      <c r="AX42" s="106"/>
-      <c r="AY42" s="103"/>
-      <c r="AZ42" s="104"/>
-      <c r="BA42" s="103"/>
-      <c r="BB42" s="104"/>
-      <c r="BC42" s="108"/>
-      <c r="BD42" s="108"/>
+      <c r="AR42" s="66"/>
+      <c r="AS42" s="67"/>
+      <c r="AT42" s="66"/>
+      <c r="AU42" s="67"/>
+      <c r="AV42" s="69"/>
+      <c r="AW42" s="69"/>
+      <c r="AX42" s="69"/>
+      <c r="AY42" s="66"/>
+      <c r="AZ42" s="67"/>
+      <c r="BA42" s="66"/>
+      <c r="BB42" s="67"/>
+      <c r="BC42" s="71"/>
+      <c r="BD42" s="71"/>
     </row>
     <row r="43" spans="1:66" ht="14.25" customHeight="1">
       <c r="A43" s="35">
         <v>37</v>
       </c>
-      <c r="B43" s="103"/>
-      <c r="C43" s="104"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="106"/>
-      <c r="G43" s="106"/>
-      <c r="H43" s="106"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="104"/>
-      <c r="K43" s="103"/>
-      <c r="L43" s="104"/>
-      <c r="M43" s="108"/>
-      <c r="N43" s="108"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="71"/>
+      <c r="N43" s="71"/>
       <c r="O43" s="33">
         <v>75</v>
       </c>
-      <c r="P43" s="103"/>
-      <c r="Q43" s="104"/>
-      <c r="R43" s="103"/>
-      <c r="S43" s="104"/>
-      <c r="T43" s="106"/>
-      <c r="U43" s="106"/>
-      <c r="V43" s="106"/>
-      <c r="W43" s="103"/>
-      <c r="X43" s="104"/>
-      <c r="Y43" s="103"/>
-      <c r="Z43" s="105"/>
-      <c r="AA43" s="108"/>
-      <c r="AB43" s="108"/>
+      <c r="P43" s="66"/>
+      <c r="Q43" s="67"/>
+      <c r="R43" s="66"/>
+      <c r="S43" s="67"/>
+      <c r="T43" s="69"/>
+      <c r="U43" s="69"/>
+      <c r="V43" s="69"/>
+      <c r="W43" s="66"/>
+      <c r="X43" s="67"/>
+      <c r="Y43" s="66"/>
+      <c r="Z43" s="68"/>
+      <c r="AA43" s="71"/>
+      <c r="AB43" s="71"/>
       <c r="AC43" s="34">
         <v>113</v>
       </c>
-      <c r="AD43" s="103"/>
-      <c r="AE43" s="104"/>
-      <c r="AF43" s="103"/>
-      <c r="AG43" s="104"/>
-      <c r="AH43" s="106"/>
-      <c r="AI43" s="106"/>
-      <c r="AJ43" s="106"/>
-      <c r="AK43" s="103"/>
-      <c r="AL43" s="104"/>
-      <c r="AM43" s="103"/>
-      <c r="AN43" s="104"/>
-      <c r="AO43" s="108"/>
-      <c r="AP43" s="108"/>
+      <c r="AD43" s="66"/>
+      <c r="AE43" s="67"/>
+      <c r="AF43" s="66"/>
+      <c r="AG43" s="67"/>
+      <c r="AH43" s="69"/>
+      <c r="AI43" s="69"/>
+      <c r="AJ43" s="69"/>
+      <c r="AK43" s="66"/>
+      <c r="AL43" s="67"/>
+      <c r="AM43" s="66"/>
+      <c r="AN43" s="67"/>
+      <c r="AO43" s="71"/>
+      <c r="AP43" s="71"/>
       <c r="AQ43" s="33"/>
-      <c r="AR43" s="103"/>
-      <c r="AS43" s="104"/>
-      <c r="AT43" s="103"/>
-      <c r="AU43" s="104"/>
-      <c r="AV43" s="106"/>
-      <c r="AW43" s="106"/>
-      <c r="AX43" s="106"/>
-      <c r="AY43" s="103"/>
-      <c r="AZ43" s="104"/>
-      <c r="BA43" s="103"/>
-      <c r="BB43" s="104"/>
-      <c r="BC43" s="106"/>
-      <c r="BD43" s="106"/>
+      <c r="AR43" s="66"/>
+      <c r="AS43" s="67"/>
+      <c r="AT43" s="66"/>
+      <c r="AU43" s="67"/>
+      <c r="AV43" s="69"/>
+      <c r="AW43" s="69"/>
+      <c r="AX43" s="69"/>
+      <c r="AY43" s="66"/>
+      <c r="AZ43" s="67"/>
+      <c r="BA43" s="66"/>
+      <c r="BB43" s="67"/>
+      <c r="BC43" s="69"/>
+      <c r="BD43" s="69"/>
     </row>
     <row r="44" spans="1:66" ht="16.5" customHeight="1" thickBot="1">
       <c r="A44" s="38">
         <v>38</v>
       </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="109"/>
-      <c r="J44" s="110"/>
-      <c r="K44" s="109"/>
-      <c r="L44" s="110"/>
-      <c r="M44" s="112"/>
-      <c r="N44" s="112"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="75"/>
       <c r="O44" s="39">
         <v>76</v>
       </c>
-      <c r="P44" s="109"/>
-      <c r="Q44" s="110"/>
-      <c r="R44" s="109"/>
-      <c r="S44" s="110"/>
-      <c r="T44" s="111"/>
-      <c r="U44" s="111"/>
-      <c r="V44" s="111"/>
-      <c r="W44" s="109"/>
-      <c r="X44" s="110"/>
-      <c r="Y44" s="109"/>
-      <c r="Z44" s="114"/>
-      <c r="AA44" s="112"/>
-      <c r="AB44" s="112"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="73"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="73"/>
+      <c r="T44" s="74"/>
+      <c r="U44" s="74"/>
+      <c r="V44" s="74"/>
+      <c r="W44" s="72"/>
+      <c r="X44" s="73"/>
+      <c r="Y44" s="72"/>
+      <c r="Z44" s="77"/>
+      <c r="AA44" s="75"/>
+      <c r="AB44" s="75"/>
       <c r="AC44" s="40">
         <v>114</v>
       </c>
-      <c r="AD44" s="109"/>
-      <c r="AE44" s="110"/>
-      <c r="AF44" s="109"/>
-      <c r="AG44" s="110"/>
-      <c r="AH44" s="111"/>
-      <c r="AI44" s="111"/>
-      <c r="AJ44" s="111"/>
-      <c r="AK44" s="109"/>
-      <c r="AL44" s="110"/>
-      <c r="AM44" s="109"/>
-      <c r="AN44" s="110"/>
-      <c r="AO44" s="112"/>
-      <c r="AP44" s="112"/>
+      <c r="AD44" s="72"/>
+      <c r="AE44" s="73"/>
+      <c r="AF44" s="72"/>
+      <c r="AG44" s="73"/>
+      <c r="AH44" s="74"/>
+      <c r="AI44" s="74"/>
+      <c r="AJ44" s="74"/>
+      <c r="AK44" s="72"/>
+      <c r="AL44" s="73"/>
+      <c r="AM44" s="72"/>
+      <c r="AN44" s="73"/>
+      <c r="AO44" s="75"/>
+      <c r="AP44" s="75"/>
       <c r="AQ44" s="39"/>
-      <c r="AR44" s="109"/>
-      <c r="AS44" s="110"/>
-      <c r="AT44" s="109"/>
-      <c r="AU44" s="110"/>
-      <c r="AV44" s="111"/>
-      <c r="AW44" s="111"/>
-      <c r="AX44" s="111"/>
-      <c r="AY44" s="109"/>
-      <c r="AZ44" s="110"/>
-      <c r="BA44" s="109"/>
-      <c r="BB44" s="110"/>
-      <c r="BC44" s="111"/>
-      <c r="BD44" s="111"/>
+      <c r="AR44" s="72"/>
+      <c r="AS44" s="73"/>
+      <c r="AT44" s="72"/>
+      <c r="AU44" s="73"/>
+      <c r="AV44" s="74"/>
+      <c r="AW44" s="74"/>
+      <c r="AX44" s="74"/>
+      <c r="AY44" s="72"/>
+      <c r="AZ44" s="73"/>
+      <c r="BA44" s="72"/>
+      <c r="BB44" s="73"/>
+      <c r="BC44" s="74"/>
+      <c r="BD44" s="74"/>
     </row>
     <row r="45" spans="1:66" ht="18.75" customHeight="1" thickTop="1">
-      <c r="A45" s="84" t="s">
+      <c r="A45" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
-      <c r="M45" s="85"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="85"/>
-      <c r="P45" s="85"/>
-      <c r="Q45" s="85"/>
-      <c r="R45" s="85"/>
-      <c r="S45" s="85"/>
-      <c r="T45" s="85"/>
-      <c r="U45" s="85"/>
-      <c r="V45" s="85"/>
-      <c r="W45" s="85"/>
-      <c r="X45" s="85"/>
-      <c r="Y45" s="85"/>
-      <c r="Z45" s="85"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="92"/>
+      <c r="L45" s="92"/>
+      <c r="M45" s="92"/>
+      <c r="N45" s="92"/>
+      <c r="O45" s="92"/>
+      <c r="P45" s="92"/>
+      <c r="Q45" s="92"/>
+      <c r="R45" s="92"/>
+      <c r="S45" s="92"/>
+      <c r="T45" s="92"/>
+      <c r="U45" s="92"/>
+      <c r="V45" s="92"/>
+      <c r="W45" s="92"/>
+      <c r="X45" s="92"/>
+      <c r="Y45" s="92"/>
+      <c r="Z45" s="92"/>
       <c r="AA45" s="41" t="s">
         <v>20</v>
       </c>
@@ -9705,32 +9705,32 @@
       <c r="BD45" s="43"/>
     </row>
     <row r="46" spans="1:66" ht="19.5" customHeight="1">
-      <c r="A46" s="84"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="85"/>
-      <c r="L46" s="85"/>
-      <c r="M46" s="85"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="85"/>
-      <c r="P46" s="85"/>
-      <c r="Q46" s="85"/>
-      <c r="R46" s="85"/>
-      <c r="S46" s="85"/>
-      <c r="T46" s="85"/>
-      <c r="U46" s="85"/>
-      <c r="V46" s="85"/>
-      <c r="W46" s="85"/>
-      <c r="X46" s="85"/>
-      <c r="Y46" s="85"/>
-      <c r="Z46" s="85"/>
+      <c r="A46" s="91"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="92"/>
+      <c r="H46" s="92"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="92"/>
+      <c r="K46" s="92"/>
+      <c r="L46" s="92"/>
+      <c r="M46" s="92"/>
+      <c r="N46" s="92"/>
+      <c r="O46" s="92"/>
+      <c r="P46" s="92"/>
+      <c r="Q46" s="92"/>
+      <c r="R46" s="92"/>
+      <c r="S46" s="92"/>
+      <c r="T46" s="92"/>
+      <c r="U46" s="92"/>
+      <c r="V46" s="92"/>
+      <c r="W46" s="92"/>
+      <c r="X46" s="92"/>
+      <c r="Y46" s="92"/>
+      <c r="Z46" s="92"/>
       <c r="AA46" s="44" t="s">
         <v>21</v>
       </c>
@@ -9793,12 +9793,12 @@
       <c r="X47" s="48"/>
       <c r="Y47" s="48"/>
       <c r="Z47" s="48"/>
-      <c r="AA47" s="86" t="s">
+      <c r="AA47" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="AB47" s="87"/>
-      <c r="AC47" s="87"/>
-      <c r="AD47" s="87"/>
+      <c r="AB47" s="94"/>
+      <c r="AC47" s="94"/>
+      <c r="AD47" s="94"/>
       <c r="AE47" s="46"/>
       <c r="AF47" s="46"/>
       <c r="AG47" s="46"/>
@@ -9817,18 +9817,18 @@
       <c r="AT47" s="48"/>
       <c r="AU47" s="48"/>
       <c r="AV47" s="49"/>
-      <c r="AW47" s="81" t="s">
+      <c r="AW47" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="AX47" s="82"/>
-      <c r="AY47" s="82"/>
-      <c r="AZ47" s="88"/>
-      <c r="BA47" s="89" t="s">
+      <c r="AX47" s="96"/>
+      <c r="AY47" s="96"/>
+      <c r="AZ47" s="97"/>
+      <c r="BA47" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="BB47" s="90"/>
-      <c r="BC47" s="90"/>
-      <c r="BD47" s="91"/>
+      <c r="BB47" s="99"/>
+      <c r="BC47" s="99"/>
+      <c r="BD47" s="100"/>
     </row>
     <row r="48" spans="1:66" ht="20.25" customHeight="1">
       <c r="A48" s="50"/>
@@ -9865,26 +9865,26 @@
       </c>
       <c r="AM48" s="55"/>
       <c r="AN48" s="56"/>
-      <c r="AP48" s="69"/>
-      <c r="AQ48" s="69"/>
-      <c r="AR48" s="69"/>
-      <c r="AS48" s="69"/>
-      <c r="AW48" s="81"/>
-      <c r="AX48" s="82"/>
-      <c r="AY48" s="82"/>
-      <c r="AZ48" s="82"/>
-      <c r="BA48" s="81"/>
-      <c r="BB48" s="82"/>
-      <c r="BC48" s="82"/>
-      <c r="BD48" s="83"/>
-      <c r="BG48" s="69"/>
-      <c r="BH48" s="69"/>
-      <c r="BI48" s="69"/>
-      <c r="BJ48" s="69"/>
-      <c r="BK48" s="69"/>
-      <c r="BL48" s="69"/>
-      <c r="BM48" s="69"/>
-      <c r="BN48" s="69"/>
+      <c r="AP48" s="101"/>
+      <c r="AQ48" s="101"/>
+      <c r="AR48" s="101"/>
+      <c r="AS48" s="101"/>
+      <c r="AW48" s="95"/>
+      <c r="AX48" s="96"/>
+      <c r="AY48" s="96"/>
+      <c r="AZ48" s="96"/>
+      <c r="BA48" s="95"/>
+      <c r="BB48" s="96"/>
+      <c r="BC48" s="96"/>
+      <c r="BD48" s="102"/>
+      <c r="BG48" s="101"/>
+      <c r="BH48" s="101"/>
+      <c r="BI48" s="101"/>
+      <c r="BJ48" s="101"/>
+      <c r="BK48" s="101"/>
+      <c r="BL48" s="101"/>
+      <c r="BM48" s="101"/>
+      <c r="BN48" s="101"/>
     </row>
     <row r="49" spans="1:66" ht="22.5" customHeight="1">
       <c r="A49" s="50"/>
@@ -9905,14 +9905,14 @@
         <v>29</v>
       </c>
       <c r="AN49" s="57"/>
-      <c r="AW49" s="74"/>
-      <c r="AX49" s="69"/>
-      <c r="AY49" s="69"/>
-      <c r="AZ49" s="75"/>
-      <c r="BA49" s="76"/>
-      <c r="BB49" s="77"/>
-      <c r="BC49" s="77"/>
-      <c r="BD49" s="78"/>
+      <c r="AW49" s="110"/>
+      <c r="AX49" s="101"/>
+      <c r="AY49" s="101"/>
+      <c r="AZ49" s="111"/>
+      <c r="BA49" s="112"/>
+      <c r="BB49" s="113"/>
+      <c r="BC49" s="113"/>
+      <c r="BD49" s="114"/>
     </row>
     <row r="50" spans="1:66" ht="18.75" customHeight="1" thickBot="1">
       <c r="A50" s="58"/>
@@ -9958,25 +9958,25 @@
       <c r="AM50" s="60"/>
       <c r="AN50" s="62"/>
       <c r="AO50" s="60"/>
-      <c r="AP50" s="67"/>
-      <c r="AQ50" s="67"/>
-      <c r="AR50" s="67"/>
-      <c r="AS50" s="67"/>
+      <c r="AP50" s="104"/>
+      <c r="AQ50" s="104"/>
+      <c r="AR50" s="104"/>
+      <c r="AS50" s="104"/>
       <c r="AT50" s="60"/>
       <c r="AU50" s="60"/>
       <c r="AV50" s="60"/>
-      <c r="AW50" s="70" t="s">
+      <c r="AW50" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="AX50" s="71"/>
-      <c r="AY50" s="71"/>
-      <c r="AZ50" s="72"/>
-      <c r="BA50" s="70" t="s">
+      <c r="AX50" s="107"/>
+      <c r="AY50" s="107"/>
+      <c r="AZ50" s="108"/>
+      <c r="BA50" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="BB50" s="71"/>
-      <c r="BC50" s="71"/>
-      <c r="BD50" s="73"/>
+      <c r="BB50" s="107"/>
+      <c r="BC50" s="107"/>
+      <c r="BD50" s="109"/>
     </row>
     <row r="51" spans="1:66" ht="26.4" thickBot="1">
       <c r="A51" s="63"/>
@@ -10043,24 +10043,61 @@
       <c r="AT51" s="63"/>
       <c r="AU51" s="63"/>
       <c r="AV51" s="63"/>
-      <c r="AW51" s="66" t="s">
+      <c r="AW51" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="AX51" s="67"/>
-      <c r="AY51" s="67"/>
-      <c r="AZ51" s="67"/>
-      <c r="BA51" s="67"/>
-      <c r="BB51" s="67"/>
-      <c r="BC51" s="67"/>
-      <c r="BD51" s="68"/>
-      <c r="BK51" s="69"/>
-      <c r="BL51" s="69"/>
-      <c r="BM51" s="69"/>
-      <c r="BN51" s="69"/>
+      <c r="AX51" s="104"/>
+      <c r="AY51" s="104"/>
+      <c r="AZ51" s="104"/>
+      <c r="BA51" s="104"/>
+      <c r="BB51" s="104"/>
+      <c r="BC51" s="104"/>
+      <c r="BD51" s="105"/>
+      <c r="BK51" s="101"/>
+      <c r="BL51" s="101"/>
+      <c r="BM51" s="101"/>
+      <c r="BN51" s="101"/>
     </row>
     <row r="54" spans="1:66" ht="9.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="AP48:AS48"/>
+    <mergeCell ref="AW48:AZ48"/>
+    <mergeCell ref="BA48:BD48"/>
+    <mergeCell ref="AW51:BD51"/>
+    <mergeCell ref="BK51:BN51"/>
+    <mergeCell ref="BG48:BJ48"/>
+    <mergeCell ref="BK48:BN48"/>
+    <mergeCell ref="AP50:AS50"/>
+    <mergeCell ref="AW50:AZ50"/>
+    <mergeCell ref="BA50:BD50"/>
+    <mergeCell ref="AW49:AZ49"/>
+    <mergeCell ref="BA49:BD49"/>
+    <mergeCell ref="A45:Z46"/>
+    <mergeCell ref="AA47:AD47"/>
+    <mergeCell ref="AW47:AZ47"/>
+    <mergeCell ref="BA47:BD47"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="AY4:BB4"/>
+    <mergeCell ref="BC4:BC5"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BA5:BB5"/>
     <mergeCell ref="AS2:BD2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
@@ -10077,43 +10114,6 @@
     <mergeCell ref="AO4:AO5"/>
     <mergeCell ref="AP4:AP5"/>
     <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="AY4:BB4"/>
-    <mergeCell ref="BC4:BC5"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="A45:Z46"/>
-    <mergeCell ref="AA47:AD47"/>
-    <mergeCell ref="AW47:AZ47"/>
-    <mergeCell ref="BA47:BD47"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="AT5:AU5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="AP48:AS48"/>
-    <mergeCell ref="AW48:AZ48"/>
-    <mergeCell ref="BA48:BD48"/>
-    <mergeCell ref="AW51:BD51"/>
-    <mergeCell ref="BK51:BN51"/>
-    <mergeCell ref="BG48:BJ48"/>
-    <mergeCell ref="BK48:BN48"/>
-    <mergeCell ref="AP50:AS50"/>
-    <mergeCell ref="AW50:AZ50"/>
-    <mergeCell ref="BA50:BD50"/>
-    <mergeCell ref="AW49:AZ49"/>
-    <mergeCell ref="BA49:BD49"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
